--- a/data/inflation_DK_MONAlong.xlsx
+++ b/data/inflation_DK_MONAlong.xlsx
@@ -1161,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1715,7 +1715,7 @@
         <v>2764.9462199999998</v>
       </c>
       <c r="E19" s="2">
-        <v>9.6068060231565742</v>
+        <v>10.530385654492184</v>
       </c>
       <c r="F19" s="2">
         <v>27.237580000000001</v>
@@ -1738,7 +1738,7 @@
         <v>2773.60034</v>
       </c>
       <c r="E20" s="2">
-        <v>9.2543776512516569</v>
+        <v>10.133071317212689</v>
       </c>
       <c r="F20" s="2">
         <v>26.540880000000001</v>
@@ -1761,7 +1761,7 @@
         <v>2780.2424500000002</v>
       </c>
       <c r="E21" s="2">
-        <v>8.7896751594451761</v>
+        <v>9.6190783614504305</v>
       </c>
       <c r="F21" s="2">
         <v>26.540880000000001</v>
@@ -1784,7 +1784,7 @@
         <v>2779.3887500000001</v>
       </c>
       <c r="E22" s="2">
-        <v>8.2335222087950086</v>
+        <v>9.0141510528321955</v>
       </c>
       <c r="F22" s="2">
         <v>27.469809999999999</v>
@@ -1807,7 +1807,7 @@
         <v>2793.8634499999998</v>
       </c>
       <c r="E23" s="2">
-        <v>7.863140555419772</v>
+        <v>8.582677866990478</v>
       </c>
       <c r="F23" s="2">
         <v>17.782389999999999</v>
@@ -1830,7 +1830,7 @@
         <v>2801.8074099999999</v>
       </c>
       <c r="E24" s="2">
-        <v>7.7096466098645937</v>
+        <v>8.3915867677045721</v>
       </c>
       <c r="F24" s="2">
         <v>12.706440000000001</v>
@@ -1853,7 +1853,7 @@
         <v>2799.2087099999999</v>
       </c>
       <c r="E25" s="2">
-        <v>7.6808645683300982</v>
+        <v>8.339713968363121</v>
       </c>
       <c r="F25" s="2">
         <v>12.37468</v>
@@ -1876,7 +1876,7 @@
         <v>2806.5557399999998</v>
       </c>
       <c r="E26" s="2">
-        <v>7.6417274363487264</v>
+        <v>8.2851872990065196</v>
       </c>
       <c r="F26" s="2">
         <v>14.630660000000001</v>
@@ -1899,7 +1899,7 @@
         <v>2802.7570500000002</v>
       </c>
       <c r="E27" s="2">
-        <v>7.750618270677438</v>
+        <v>8.3902420267249926</v>
       </c>
       <c r="F27" s="2">
         <v>17.616510000000002</v>
@@ -1922,7 +1922,7 @@
         <v>2815.3772399999998</v>
       </c>
       <c r="E28" s="2">
-        <v>7.7558743069188143</v>
+        <v>8.382198185141899</v>
       </c>
       <c r="F28" s="2">
         <v>18.578620000000001</v>
@@ -1945,7 +1945,7 @@
         <v>2819.57341</v>
       </c>
       <c r="E29" s="2">
-        <v>7.7107167782519275</v>
+        <v>8.3192620232862602</v>
       </c>
       <c r="F29" s="2">
         <v>18.91038</v>
@@ -1968,7 +1968,7 @@
         <v>2828.3074299999998</v>
       </c>
       <c r="E30" s="2">
-        <v>7.743506511242308</v>
+        <v>8.3297345054424525</v>
       </c>
       <c r="F30" s="2">
         <v>17.815570000000001</v>
@@ -1991,7 +1991,7 @@
         <v>2815.5081500000001</v>
       </c>
       <c r="E31" s="2">
-        <v>8.2236316737353441</v>
+        <v>8.7990404175172277</v>
       </c>
       <c r="F31" s="2">
         <v>15.72547</v>
@@ -2014,7 +2014,7 @@
         <v>2818.7068599999998</v>
       </c>
       <c r="E32" s="2">
-        <v>8.3279522014573732</v>
+        <v>8.9058640161894296</v>
       </c>
       <c r="F32" s="2">
         <v>16.25629</v>
@@ -2037,7 +2037,7 @@
         <v>2817.3361399999999</v>
       </c>
       <c r="E33" s="2">
-        <v>8.3996782151809537</v>
+        <v>9.0090527803900198</v>
       </c>
       <c r="F33" s="2">
         <v>14.36525</v>
@@ -2060,7 +2060,7 @@
         <v>2836.0019600000001</v>
       </c>
       <c r="E34" s="2">
-        <v>8.9937709351935702</v>
+        <v>9.6577471943051751</v>
       </c>
       <c r="F34" s="2">
         <v>13.303610000000001</v>
@@ -2083,7 +2083,7 @@
         <v>2834.6161900000002</v>
       </c>
       <c r="E35" s="2">
-        <v>9.212055265937078</v>
+        <v>9.9491317562613766</v>
       </c>
       <c r="F35" s="2">
         <v>16.551559999999998</v>
@@ -2106,7 +2106,7 @@
         <v>2833.9809700000001</v>
       </c>
       <c r="E36" s="2">
-        <v>9.2876851604264647</v>
+        <v>10.103497617087788</v>
       </c>
       <c r="F36" s="2">
         <v>18.353020000000001</v>
@@ -2129,7 +2129,7 @@
         <v>2829.9927200000002</v>
       </c>
       <c r="E37" s="2">
-        <v>9.2638372582103319</v>
+        <v>10.151580885528883</v>
       </c>
       <c r="F37" s="2">
         <v>17.40418</v>
@@ -2152,7 +2152,7 @@
         <v>2845.0467600000002</v>
       </c>
       <c r="E38" s="2">
-        <v>9.2615982171062807</v>
+        <v>10.203322643477094</v>
       </c>
       <c r="F38" s="2">
         <v>18.953510000000001</v>
@@ -2175,7 +2175,7 @@
         <v>2839.72676</v>
       </c>
       <c r="E39" s="2">
-        <v>9.3034781980221215</v>
+        <v>10.303142686868931</v>
       </c>
       <c r="F39" s="2">
         <v>19.392759999999999</v>
@@ -2198,7 +2198,7 @@
         <v>2820.7603199999999</v>
       </c>
       <c r="E40" s="2">
-        <v>9.4893783814996393</v>
+        <v>10.545780791471145</v>
       </c>
       <c r="F40" s="2">
         <v>16.706489999999999</v>
@@ -2221,7 +2221,7 @@
         <v>2825.0945499999998</v>
       </c>
       <c r="E41" s="2">
-        <v>9.7345149032268683</v>
+        <v>10.841141582323324</v>
       </c>
       <c r="F41" s="2">
         <v>25.432469999999999</v>
@@ -2244,7 +2244,7 @@
         <v>2854.0498899999998</v>
       </c>
       <c r="E42" s="2">
-        <v>9.8085597936061326</v>
+        <v>10.957776214626719</v>
       </c>
       <c r="F42" s="2">
         <v>30.91018</v>
@@ -2267,7 +2267,7 @@
         <v>2816.3233700000001</v>
       </c>
       <c r="E43" s="2">
-        <v>10.162624542649731</v>
+        <v>11.382758933680263</v>
       </c>
       <c r="F43" s="2">
         <v>19.938839999999999</v>
@@ -2290,7 +2290,7 @@
         <v>2823.1937600000001</v>
       </c>
       <c r="E44" s="2">
-        <v>10.420813624921019</v>
+        <v>11.723481565076852</v>
       </c>
       <c r="F44" s="2">
         <v>18.917020000000001</v>
@@ -2313,7 +2313,7 @@
         <v>2839.9344299999998</v>
       </c>
       <c r="E45" s="2">
-        <v>10.559413866467333</v>
+        <v>11.917342049337387</v>
       </c>
       <c r="F45" s="2">
         <v>19.79618</v>
@@ -2336,7 +2336,7 @@
         <v>2874.9150800000002</v>
       </c>
       <c r="E46" s="2">
-        <v>10.729641447357114</v>
+        <v>12.068993008308263</v>
       </c>
       <c r="F46" s="2">
         <v>20.373449999999998</v>
@@ -2359,7 +2359,7 @@
         <v>2837.8703300000002</v>
       </c>
       <c r="E47" s="2">
-        <v>10.947974849858625</v>
+        <v>12.336285992320162</v>
       </c>
       <c r="F47" s="2">
         <v>17.81889</v>
@@ -2382,7 +2382,7 @@
         <v>2834.8643099999999</v>
       </c>
       <c r="E48" s="2">
-        <v>11.083186905690029</v>
+        <v>12.441054012916759</v>
       </c>
       <c r="F48" s="2">
         <v>19.839310000000001</v>
@@ -2405,7 +2405,7 @@
         <v>2834.3765100000001</v>
       </c>
       <c r="E49" s="2">
-        <v>11.187381382863634</v>
+        <v>12.581458346901131</v>
       </c>
       <c r="F49" s="2">
         <v>20.111350000000002</v>
@@ -2428,7 +2428,7 @@
         <v>2841.0887600000001</v>
       </c>
       <c r="E50" s="2">
-        <v>11.597200504217966</v>
+        <v>13.024137267714227</v>
       </c>
       <c r="F50" s="2">
         <v>19.195689999999999</v>
@@ -2451,7 +2451,7 @@
         <v>2842.45705</v>
       </c>
       <c r="E51" s="2">
-        <v>11.991669320034228</v>
+        <v>13.480499204024909</v>
       </c>
       <c r="F51" s="2">
         <v>18.267109999999999</v>
@@ -2474,7 +2474,7 @@
         <v>2827.0625399999999</v>
       </c>
       <c r="E52" s="2">
-        <v>12.243504878388716</v>
+        <v>13.848176135502118</v>
       </c>
       <c r="F52" s="2">
         <v>18.51193</v>
@@ -2497,7 +2497,7 @@
         <v>2809.3939700000001</v>
       </c>
       <c r="E53" s="2">
-        <v>12.231320123464206</v>
+        <v>13.927950446907236</v>
       </c>
       <c r="F53" s="2">
         <v>16.679030000000001</v>
@@ -2520,7 +2520,7 @@
         <v>2798.7609400000001</v>
       </c>
       <c r="E54" s="2">
-        <v>12.569345776277697</v>
+        <v>14.196303597119659</v>
       </c>
       <c r="F54" s="2">
         <v>15.417540000000001</v>
@@ -2543,7 +2543,7 @@
         <v>2825.8794400000002</v>
       </c>
       <c r="E55" s="2">
-        <v>12.693869204837696</v>
+        <v>14.095548251697531</v>
       </c>
       <c r="F55" s="2">
         <v>13.850580000000001</v>
@@ -2566,7 +2566,7 @@
         <v>2823.0671600000001</v>
       </c>
       <c r="E56" s="2">
-        <v>12.817518659386055</v>
+        <v>13.876988317911643</v>
       </c>
       <c r="F56" s="2">
         <v>15.8894</v>
@@ -2589,7 +2589,7 @@
         <v>2806.6736099999998</v>
       </c>
       <c r="E57" s="2">
-        <v>12.312247807111424</v>
+        <v>13.26133892711522</v>
       </c>
       <c r="F57" s="2">
         <v>16.842459999999999</v>
@@ -2612,7 +2612,7 @@
         <v>2799.7305200000001</v>
       </c>
       <c r="E58" s="2">
-        <v>11.616958049233967</v>
+        <v>12.53677443213356</v>
       </c>
       <c r="F58" s="2">
         <v>16.608750000000001</v>
@@ -2635,7 +2635,7 @@
         <v>2810.0133599999999</v>
       </c>
       <c r="E59" s="2">
-        <v>10.941989258015486</v>
+        <v>11.745485081964164</v>
       </c>
       <c r="F59" s="2">
         <v>16.805479999999999</v>
@@ -2658,7 +2658,7 @@
         <v>2790.9003499999999</v>
       </c>
       <c r="E60" s="2">
-        <v>10.494726191137566</v>
+        <v>11.265332350544153</v>
       </c>
       <c r="F60" s="2">
         <v>18.027940000000001</v>
@@ -2681,7 +2681,7 @@
         <v>2779.8141500000002</v>
       </c>
       <c r="E61" s="2">
-        <v>10.245654372253627</v>
+        <v>10.959380144172586</v>
       </c>
       <c r="F61" s="2">
         <v>16.182749999999999</v>
@@ -2704,7 +2704,7 @@
         <v>2762.2802000000001</v>
       </c>
       <c r="E62" s="2">
-        <v>9.7745768151978201</v>
+        <v>10.501574025690804</v>
       </c>
       <c r="F62" s="2">
         <v>16.931819999999998</v>
@@ -2727,7 +2727,7 @@
         <v>2760.1368200000002</v>
       </c>
       <c r="E63" s="2">
-        <v>9.1788138241639761</v>
+        <v>9.879481264265733</v>
       </c>
       <c r="F63" s="2">
         <v>18.55444</v>
@@ -2750,7 +2750,7 @@
         <v>2781.68631</v>
       </c>
       <c r="E64" s="2">
-        <v>9.1758840341706254</v>
+        <v>9.7921573335132805</v>
       </c>
       <c r="F64" s="2">
         <v>19.489470000000001</v>
@@ -2773,7 +2773,7 @@
         <v>2785.5196999999998</v>
       </c>
       <c r="E65" s="2">
-        <v>8.9330798845184987</v>
+        <v>9.5002236027984317</v>
       </c>
       <c r="F65" s="2">
         <v>20.851459999999999</v>
@@ -2796,7 +2796,7 @@
         <v>2790.9014299999999</v>
       </c>
       <c r="E66" s="2">
-        <v>8.8327530076904228</v>
+        <v>9.3749925091406752</v>
       </c>
       <c r="F66" s="2">
         <v>23.526679999999999</v>
@@ -2819,7 +2819,7 @@
         <v>2786.5026200000002</v>
       </c>
       <c r="E67" s="2">
-        <v>8.4341431554081936</v>
+        <v>8.9499036609554654</v>
       </c>
       <c r="F67" s="2">
         <v>21.188590000000001</v>
@@ -2842,7 +2842,7 @@
         <v>2806.2199000000001</v>
       </c>
       <c r="E68" s="2">
-        <v>8.2778936889443333</v>
+        <v>8.7883561797847705</v>
       </c>
       <c r="F68" s="2">
         <v>18.063929999999999</v>
@@ -2865,7 +2865,7 @@
         <v>2796.0770699999998</v>
       </c>
       <c r="E69" s="2">
-        <v>7.9715996526519213</v>
+        <v>8.4774415749563019</v>
       </c>
       <c r="F69" s="2">
         <v>18.430420000000002</v>
@@ -2888,7 +2888,7 @@
         <v>2808.6781900000001</v>
       </c>
       <c r="E70" s="2">
-        <v>7.6223111199506981</v>
+        <v>8.1002124348037192</v>
       </c>
       <c r="F70" s="2">
         <v>18.745650000000001</v>
@@ -2911,7 +2911,7 @@
         <v>2792.55897</v>
       </c>
       <c r="E71" s="2">
-        <v>7.3228881537280479</v>
+        <v>7.8042935651955094</v>
       </c>
       <c r="F71" s="2">
         <v>14.1904</v>
@@ -2934,7 +2934,7 @@
         <v>2798.7469999999998</v>
       </c>
       <c r="E72" s="2">
-        <v>6.9398734505119615</v>
+        <v>7.4229003193214682</v>
       </c>
       <c r="F72" s="2">
         <v>13.34919</v>
@@ -2957,7 +2957,7 @@
         <v>2808.0852500000001</v>
       </c>
       <c r="E73" s="2">
-        <v>6.7937485160039213</v>
+        <v>7.2846898077613575</v>
       </c>
       <c r="F73" s="2">
         <v>12.4283</v>
@@ -2980,7 +2980,7 @@
         <v>2820.3229299999998</v>
       </c>
       <c r="E74" s="2">
-        <v>6.5143579143257897</v>
+        <v>7.0069848348891002</v>
       </c>
       <c r="F74" s="2">
         <v>11.23766</v>
@@ -3003,7 +3003,7 @@
         <v>2818.96486</v>
       </c>
       <c r="E75" s="2">
-        <v>6.5359402883794733</v>
+        <v>7.045742315496617</v>
       </c>
       <c r="F75" s="2">
         <v>11.300319999999999</v>
@@ -3026,7 +3026,7 @@
         <v>2814.78215</v>
       </c>
       <c r="E76" s="2">
-        <v>6.5434245772803408</v>
+        <v>7.055582153161609</v>
       </c>
       <c r="F76" s="2">
         <v>15.47588</v>
@@ -3049,7 +3049,7 @@
         <v>2824.8520400000002</v>
       </c>
       <c r="E77" s="2">
-        <v>6.4616850162530977</v>
+        <v>6.9639247733271308</v>
       </c>
       <c r="F77" s="2">
         <v>20.623950000000001</v>
@@ -3072,7 +3072,7 @@
         <v>2826.1518799999999</v>
       </c>
       <c r="E78" s="2">
-        <v>6.4485877170904207</v>
+        <v>6.9371792688852425</v>
       </c>
       <c r="F78" s="2">
         <v>24.06193</v>
@@ -3095,7 +3095,7 @@
         <v>2841.4554199999998</v>
       </c>
       <c r="E79" s="2">
-        <v>6.3954123552640505</v>
+        <v>6.8577363507956592</v>
       </c>
       <c r="F79" s="2">
         <v>26.854669999999999</v>
@@ -3118,7 +3118,7 @@
         <v>2832.9541399999998</v>
       </c>
       <c r="E80" s="2">
-        <v>6.3115483401365617</v>
+        <v>6.816208454290952</v>
       </c>
       <c r="F80" s="2">
         <v>26.7271</v>
@@ -3141,7 +3141,7 @@
         <v>2837.2400200000002</v>
       </c>
       <c r="E81" s="2">
-        <v>6.2180471428709083</v>
+        <v>6.7152332055147204</v>
       </c>
       <c r="F81" s="2">
         <v>30.611660000000001</v>
@@ -3164,7 +3164,7 @@
         <v>2833.5366399999998</v>
       </c>
       <c r="E82" s="2">
-        <v>6.0981900343452065</v>
+        <v>6.6085994552788376</v>
       </c>
       <c r="F82" s="2">
         <v>29.536709999999999</v>
@@ -3187,7 +3187,7 @@
         <v>2855.3015300000002</v>
       </c>
       <c r="E83" s="2">
-        <v>5.9943003287642265</v>
+        <v>6.5081409987502559</v>
       </c>
       <c r="F83" s="2">
         <v>25.82788</v>
@@ -3210,7 +3210,7 @@
         <v>2856.8195099999998</v>
       </c>
       <c r="E84" s="2">
-        <v>5.8449334098813965</v>
+        <v>6.3410173827293459</v>
       </c>
       <c r="F84" s="2">
         <v>27.325980000000001</v>
@@ -3233,7 +3233,7 @@
         <v>2846.2370900000001</v>
       </c>
       <c r="E85" s="2">
-        <v>5.7682739634314864</v>
+        <v>6.2614318653266636</v>
       </c>
       <c r="F85" s="2">
         <v>25.315059999999999</v>
@@ -3256,7 +3256,7 @@
         <v>2852.8621600000001</v>
       </c>
       <c r="E86" s="2">
-        <v>5.6851506278172241</v>
+        <v>6.2068696565408432</v>
       </c>
       <c r="F86" s="2">
         <v>19.338339999999999</v>
@@ -3279,7 +3279,7 @@
         <v>2855.0302999999999</v>
       </c>
       <c r="E87" s="2">
-        <v>5.8142513233572339</v>
+        <v>6.3369830026636418</v>
       </c>
       <c r="F87" s="2">
         <v>21.127680000000002</v>
@@ -3302,7 +3302,7 @@
         <v>2859.4812700000002</v>
       </c>
       <c r="E88" s="2">
-        <v>5.7718764844366337</v>
+        <v>6.2981914739625182</v>
       </c>
       <c r="F88" s="2">
         <v>25.051449999999999</v>
@@ -3325,7 +3325,7 @@
         <v>2858.4651899999999</v>
       </c>
       <c r="E89" s="2">
-        <v>5.8254555830361534</v>
+        <v>6.3568732518565891</v>
       </c>
       <c r="F89" s="2">
         <v>26.989660000000001</v>
@@ -3348,7 +3348,7 @@
         <v>2857.7744699999998</v>
       </c>
       <c r="E90" s="2">
-        <v>5.9463690289038107</v>
+        <v>6.4607079482411676</v>
       </c>
       <c r="F90" s="2">
         <v>26.779949999999999</v>
@@ -3380,7 +3380,7 @@
         <v>2849.2044599999999</v>
       </c>
       <c r="E91" s="2">
-        <v>6.2035009940985422</v>
+        <v>6.6957331541422871</v>
       </c>
       <c r="F91" s="2">
         <v>31.466339999999999</v>
@@ -3412,7 +3412,7 @@
         <v>2844.8296</v>
       </c>
       <c r="E92" s="2">
-        <v>6.4121893276138584</v>
+        <v>6.8818001381073204</v>
       </c>
       <c r="F92" s="2">
         <v>26.136289999999999</v>
@@ -3444,7 +3444,7 @@
         <v>2847.51073</v>
       </c>
       <c r="E93" s="2">
-        <v>6.4983613599938925</v>
+        <v>6.9576311970777844</v>
       </c>
       <c r="F93" s="2">
         <v>28.475020000000001</v>
@@ -3476,7 +3476,7 @@
         <v>2843.00936</v>
       </c>
       <c r="E94" s="2">
-        <v>6.6972642327143106</v>
+        <v>7.1864791272529107</v>
       </c>
       <c r="F94" s="2">
         <v>29.448460000000001</v>
@@ -3508,7 +3508,7 @@
         <v>2822.2287000000001</v>
       </c>
       <c r="E95" s="2">
-        <v>6.6127314203841809</v>
+        <v>7.1594108636132745</v>
       </c>
       <c r="F95" s="2">
         <v>31.978870000000001</v>
@@ -3540,7 +3540,7 @@
         <v>2836.2442999999998</v>
       </c>
       <c r="E96" s="2">
-        <v>6.5057569970259621</v>
+        <v>7.12020891816094</v>
       </c>
       <c r="F96" s="2">
         <v>35.449710000000003</v>
@@ -3572,7 +3572,7 @@
         <v>2826.07357</v>
       </c>
       <c r="E97" s="2">
-        <v>6.36558548615562</v>
+        <v>7.0359392186195402</v>
       </c>
       <c r="F97" s="2">
         <v>41.434539999999998</v>
@@ -3604,7 +3604,7 @@
         <v>2835.8275899999999</v>
       </c>
       <c r="E98" s="2">
-        <v>6.3522677343018588</v>
+        <v>6.9653373249724035</v>
       </c>
       <c r="F98" s="2">
         <v>44.338859999999997</v>
@@ -3636,7 +3636,7 @@
         <v>2841.0472399999999</v>
       </c>
       <c r="E99" s="2">
-        <v>6.0885834830398675</v>
+        <v>6.6511742249064847</v>
       </c>
       <c r="F99" s="2">
         <v>47.532089999999997</v>
@@ -3668,7 +3668,7 @@
         <v>2852.6362899999999</v>
       </c>
       <c r="E100" s="2">
-        <v>5.9360938719601029</v>
+        <v>6.4407859418667686</v>
       </c>
       <c r="F100" s="2">
         <v>51.044429999999998</v>
@@ -3700,7 +3700,7 @@
         <v>2849.67569</v>
       </c>
       <c r="E101" s="2">
-        <v>5.6731455641536526</v>
+        <v>6.1458794013623299</v>
       </c>
       <c r="F101" s="2">
         <v>61.570360000000001</v>
@@ -3732,7 +3732,7 @@
         <v>2850.3584099999998</v>
       </c>
       <c r="E102" s="2">
-        <v>5.3889597694487836</v>
+        <v>5.8520645424171738</v>
       </c>
       <c r="F102" s="2">
         <v>56.611809999999998</v>
@@ -3764,7 +3764,7 @@
         <v>2859.2962600000001</v>
       </c>
       <c r="E103" s="2">
-        <v>4.9167361901840847</v>
+        <v>5.3734933067016764</v>
       </c>
       <c r="F103" s="2">
         <v>61.310920000000003</v>
@@ -3796,7 +3796,7 @@
         <v>2867.7513899999999</v>
       </c>
       <c r="E104" s="2">
-        <v>4.6154536429324162</v>
+        <v>5.0440390722918016</v>
       </c>
       <c r="F104" s="2">
         <v>69.359390000000005</v>
@@ -3828,7 +3828,7 @@
         <v>2869.7239199999999</v>
       </c>
       <c r="E105" s="2">
-        <v>4.3597538469833017</v>
+        <v>4.7540041595148832</v>
       </c>
       <c r="F105" s="2">
         <v>69.673569999999998</v>
@@ -3860,7 +3860,7 @@
         <v>2882.3636700000002</v>
       </c>
       <c r="E106" s="2">
-        <v>4.0321934462905578</v>
+        <v>4.3711649036526108</v>
       </c>
       <c r="F106" s="2">
         <v>59.699069999999999</v>
@@ -3892,7 +3892,7 @@
         <v>2910.2888499999999</v>
       </c>
       <c r="E107" s="2">
-        <v>3.6895868600809156</v>
+        <v>3.9527389842365315</v>
       </c>
       <c r="F107" s="2">
         <v>57.912750000000003</v>
@@ -3924,7 +3924,7 @@
         <v>2905.9630200000001</v>
       </c>
       <c r="E108" s="2">
-        <v>3.4266266196326196</v>
+        <v>3.644704763095461</v>
       </c>
       <c r="F108" s="2">
         <v>68.722970000000004</v>
@@ -3956,7 +3956,7 @@
         <v>2891.9307899999999</v>
       </c>
       <c r="E109" s="2">
-        <v>3.1614186901063426</v>
+        <v>3.3594114429074908</v>
       </c>
       <c r="F109" s="2">
         <v>75.002520000000004</v>
@@ -3988,7 +3988,7 @@
         <v>2886.13762</v>
       </c>
       <c r="E110" s="2">
-        <v>2.8069432704321282</v>
+        <v>3.0036122973347275</v>
       </c>
       <c r="F110" s="2">
         <v>88.710530000000006</v>
@@ -4020,7 +4020,7 @@
         <v>2907.96992</v>
       </c>
       <c r="E111" s="2">
-        <v>2.4302147561416314</v>
+        <v>2.6258321009016159</v>
       </c>
       <c r="F111" s="2">
         <v>96.946950000000001</v>
@@ -4052,7 +4052,7 @@
         <v>2898.1729099999998</v>
       </c>
       <c r="E112" s="2">
-        <v>2.1363844643762131</v>
+        <v>2.3320259211446559</v>
       </c>
       <c r="F112" s="2">
         <v>121.7448</v>
@@ -4084,7 +4084,7 @@
         <v>2911.3177900000001</v>
       </c>
       <c r="E113" s="2">
-        <v>2.1794867368292352</v>
+        <v>2.3832927862592572</v>
       </c>
       <c r="F113" s="2">
         <v>115.06059999999999</v>
@@ -4116,7 +4116,7 @@
         <v>2914.9343399999998</v>
       </c>
       <c r="E114" s="2">
-        <v>2.5051245819828658</v>
+        <v>2.7190902719148351</v>
       </c>
       <c r="F114" s="2">
         <v>54.877940000000002</v>
@@ -4148,7 +4148,7 @@
         <v>2884.3014400000002</v>
       </c>
       <c r="E115" s="2">
-        <v>3.240385311460372</v>
+        <v>3.4661989843215362</v>
       </c>
       <c r="F115" s="2">
         <v>44.456760000000003</v>
@@ -4180,7 +4180,7 @@
         <v>2875.19607</v>
       </c>
       <c r="E116" s="2">
-        <v>4.1909552276203552</v>
+        <v>4.449208249324256</v>
       </c>
       <c r="F116" s="2">
         <v>58.95946</v>
@@ -4212,7 +4212,7 @@
         <v>2870.6467600000001</v>
       </c>
       <c r="E117" s="2">
-        <v>4.6856175365860757</v>
+        <v>4.9953569495687837</v>
       </c>
       <c r="F117" s="2">
         <v>68.321520000000007</v>
@@ -4244,7 +4244,7 @@
         <v>2857.07573</v>
       </c>
       <c r="E118" s="2">
-        <v>5.0660439091686245</v>
+        <v>5.4413415545346018</v>
       </c>
       <c r="F118" s="2">
         <v>74.735050000000001</v>
@@ -4276,7 +4276,7 @@
         <v>2829.8395799999998</v>
       </c>
       <c r="E119" s="2">
-        <v>5.2813742537306663</v>
+        <v>5.7427722119205216</v>
       </c>
       <c r="F119" s="2">
         <v>76.365070000000003</v>
@@ -4308,7 +4308,7 @@
         <v>2832.2677399999998</v>
       </c>
       <c r="E120" s="2">
-        <v>5.2045649822640012</v>
+        <v>5.7541915107552537</v>
       </c>
       <c r="F120" s="2">
         <v>78.353970000000004</v>
@@ -4340,7 +4340,7 @@
         <v>2833.35581</v>
       </c>
       <c r="E121" s="2">
-        <v>5.1901437680712608</v>
+        <v>5.8123351320126782</v>
       </c>
       <c r="F121" s="2">
         <v>76.850610000000003</v>
@@ -4372,7 +4372,7 @@
         <v>2832.78611</v>
       </c>
       <c r="E122" s="2">
-        <v>5.1398669135665873</v>
+        <v>5.7699511228486458</v>
       </c>
       <c r="F122" s="2">
         <v>86.580510000000004</v>
@@ -4404,7 +4404,7 @@
         <v>2823.5940599999999</v>
       </c>
       <c r="E123" s="2">
-        <v>5.0542014527399877</v>
+        <v>5.7024813493993864</v>
       </c>
       <c r="F123" s="2">
         <v>104.91370000000001</v>
@@ -4436,7 +4436,7 @@
         <v>2831.3271399999999</v>
       </c>
       <c r="E124" s="2">
-        <v>4.9691655906636063</v>
+        <v>5.6299286408439775</v>
       </c>
       <c r="F124" s="2">
         <v>117.49379999999999</v>
@@ -4468,7 +4468,7 @@
         <v>2832.87635</v>
       </c>
       <c r="E125" s="2">
-        <v>4.9815019635431668</v>
+        <v>5.6296464656788805</v>
       </c>
       <c r="F125" s="2">
         <v>113.1405</v>
@@ -4500,7 +4500,7 @@
         <v>2831.4003600000001</v>
       </c>
       <c r="E126" s="2">
-        <v>4.9146451334067072</v>
+        <v>5.5422858778230815</v>
       </c>
       <c r="F126" s="2">
         <v>109.4419</v>
@@ -4532,7 +4532,7 @@
         <v>2822.47318</v>
       </c>
       <c r="E127" s="2">
-        <v>5.0574783141074882</v>
+        <v>5.6697380203176131</v>
       </c>
       <c r="F127" s="2">
         <v>118.6489</v>
@@ -4564,7 +4564,7 @@
         <v>2823.90229</v>
       </c>
       <c r="E128" s="2">
-        <v>5.2756717017995687</v>
+        <v>5.8229116673529546</v>
       </c>
       <c r="F128" s="2">
         <v>108.8227</v>
@@ -4596,7 +4596,7 @@
         <v>2821.3447099999998</v>
       </c>
       <c r="E129" s="2">
-        <v>5.28845275343898</v>
+        <v>5.7697722340383848</v>
       </c>
       <c r="F129" s="2">
         <v>109.6541</v>
@@ -4628,7 +4628,7 @@
         <v>2820.65924</v>
       </c>
       <c r="E130" s="2">
-        <v>5.2272635031234751</v>
+        <v>5.6922298817276111</v>
       </c>
       <c r="F130" s="2">
         <v>110.2563</v>
@@ -4660,7 +4660,7 @@
         <v>2818.7222499999998</v>
       </c>
       <c r="E131" s="2">
-        <v>5.1687270712820323</v>
+        <v>5.57363532695567</v>
       </c>
       <c r="F131" s="2">
         <v>112.6075</v>
@@ -4692,7 +4692,7 @@
         <v>2820.61384</v>
       </c>
       <c r="E132" s="2">
-        <v>5.1683524675607497</v>
+        <v>5.5250267475536461</v>
       </c>
       <c r="F132" s="2">
         <v>102.70269999999999</v>
@@ -4724,7 +4724,7 @@
         <v>2824.6955800000001</v>
       </c>
       <c r="E133" s="2">
-        <v>5.0250938899405222</v>
+        <v>5.3621318501364899</v>
       </c>
       <c r="F133" s="2">
         <v>110.3498</v>
@@ -4756,7 +4756,7 @@
         <v>2826.7089099999998</v>
       </c>
       <c r="E134" s="2">
-        <v>4.9235672448494183</v>
+        <v>5.2547523638473717</v>
       </c>
       <c r="F134" s="2">
         <v>109.32810000000001</v>
@@ -4788,7 +4788,7 @@
         <v>2822.3292499999998</v>
       </c>
       <c r="E135" s="2">
-        <v>4.622420435177788</v>
+        <v>4.9062624101196848</v>
       </c>
       <c r="F135" s="2">
         <v>108.24769999999999</v>
@@ -4820,7 +4820,7 @@
         <v>2825.7004499999998</v>
       </c>
       <c r="E136" s="2">
-        <v>4.4940921816394228</v>
+        <v>4.7503453327426248</v>
       </c>
       <c r="F136" s="2">
         <v>109.7867</v>
@@ -4852,7 +4852,7 @@
         <v>2827.5064200000002</v>
       </c>
       <c r="E137" s="2">
-        <v>4.4211980250782243</v>
+        <v>4.6556395133728703</v>
       </c>
       <c r="F137" s="2">
         <v>101.9479</v>
@@ -4884,7 +4884,7 @@
         <v>2833.9921599999998</v>
       </c>
       <c r="E138" s="2">
-        <v>4.3528913290995135</v>
+        <v>4.5579586012179902</v>
       </c>
       <c r="F138" s="2">
         <v>76.053849999999997</v>
@@ -4916,7 +4916,7 @@
         <v>2845.0744</v>
       </c>
       <c r="E139" s="2">
-        <v>4.2971153935376876</v>
+        <v>4.4764577222344917</v>
       </c>
       <c r="F139" s="2">
         <v>54.198030000000003</v>
@@ -4948,7 +4948,7 @@
         <v>2853.6372000000001</v>
       </c>
       <c r="E140" s="2">
-        <v>4.2530013275689003</v>
+        <v>4.4082806462605255</v>
       </c>
       <c r="F140" s="2">
         <v>61.675660000000001</v>
@@ -4980,7 +4980,7 @@
         <v>2858.2902300000001</v>
       </c>
       <c r="E141" s="2">
-        <v>4.0765532407113181</v>
+        <v>4.2106902570718132</v>
       </c>
       <c r="F141" s="2">
         <v>50.198349999999998</v>
@@ -5012,7 +5012,7 @@
         <v>2865.5751300000002</v>
       </c>
       <c r="E142" s="2">
-        <v>3.9571706500677228</v>
+        <v>4.0853816116326671</v>
       </c>
       <c r="F142" s="2">
         <v>43.543370000000003</v>
@@ -5044,7 +5044,7 @@
         <v>2876.30951</v>
       </c>
       <c r="E143" s="2">
-        <v>3.8587625780231138</v>
+        <v>3.9837465754529235</v>
       </c>
       <c r="F143" s="2">
         <v>33.929139999999997</v>
@@ -5076,7 +5076,7 @@
         <v>2884.0498400000001</v>
       </c>
       <c r="E144" s="2">
-        <v>3.7541571056899627</v>
+        <v>3.8803774440109589</v>
       </c>
       <c r="F144" s="2">
         <v>45.539479999999998</v>
@@ -5108,7 +5108,7 @@
         <v>2896.1749799999998</v>
       </c>
       <c r="E145" s="2">
-        <v>3.7045164998973932</v>
+        <v>3.8283394976019887</v>
       </c>
       <c r="F145" s="2">
         <v>45.750070000000001</v>
@@ -5140,7 +5140,7 @@
         <v>2909.7444700000001</v>
       </c>
       <c r="E146" s="2">
-        <v>3.7519650995332929</v>
+        <v>3.8708688400446638</v>
       </c>
       <c r="F146" s="2">
         <v>49.303359999999998</v>
@@ -5172,7 +5172,7 @@
         <v>2921.6062000000002</v>
       </c>
       <c r="E147" s="2">
-        <v>3.8453094397184668</v>
+        <v>3.9676867751913849</v>
       </c>
       <c r="F147" s="2">
         <v>53.662190000000002</v>
@@ -5204,7 +5204,7 @@
         <v>2933.3497299999999</v>
       </c>
       <c r="E148" s="2">
-        <v>3.8396925142642298</v>
+        <v>3.9622381179284556</v>
       </c>
       <c r="F148" s="2">
         <v>49.734760000000001</v>
@@ -5236,7 +5236,7 @@
         <v>2942.2687799999999</v>
       </c>
       <c r="E149" s="2">
-        <v>3.8971812425647943</v>
+        <v>4.0160358653203998</v>
       </c>
       <c r="F149" s="2">
         <v>52.054220000000001</v>
@@ -5268,7 +5268,7 @@
         <v>2950.5178900000001</v>
       </c>
       <c r="E150" s="2">
-        <v>3.7878700338942868</v>
+        <v>3.8986440152373172</v>
       </c>
       <c r="F150" s="2">
         <v>61.766249999999999</v>
@@ -5300,7 +5300,7 @@
         <v>2956.7958100000001</v>
       </c>
       <c r="E151" s="2">
-        <v>3.6657910780792129</v>
+        <v>3.7734489879035298</v>
       </c>
       <c r="F151" s="2">
         <v>66.880619999999993</v>
@@ -5332,7 +5332,7 @@
         <v>2965.7101699999998</v>
       </c>
       <c r="E152" s="2">
-        <v>3.5616764601107334</v>
+        <v>3.6630618223935527</v>
       </c>
       <c r="F152" s="2">
         <v>74.449010000000001</v>
@@ -5364,7 +5364,7 @@
         <v>2977.1850300000001</v>
       </c>
       <c r="E153" s="2">
-        <v>3.4736079873409813</v>
+        <v>3.5689718088789562</v>
       </c>
       <c r="F153" s="2">
         <v>75.207830000000001</v>
@@ -5396,7 +5396,7 @@
         <v>2982.19497</v>
       </c>
       <c r="E154" s="2">
-        <v>3.459335725457279</v>
+        <v>3.5473057148546587</v>
       </c>
       <c r="F154" s="2">
         <v>67.102980000000002</v>
@@ -5428,7 +5428,7 @@
         <v>2991.3098</v>
       </c>
       <c r="E155" s="2">
-        <v>3.3831213336712898</v>
+        <v>3.4672825696562217</v>
       </c>
       <c r="F155" s="2">
         <v>63.22681</v>
@@ -5460,7 +5460,7 @@
         <v>2997.7643200000002</v>
       </c>
       <c r="E156" s="2">
-        <v>3.3325647994903078</v>
+        <v>3.4177016282366282</v>
       </c>
       <c r="F156" s="2">
         <v>69.061750000000004</v>
@@ -5492,7 +5492,7 @@
         <v>3009.72894</v>
       </c>
       <c r="E157" s="2">
-        <v>3.3965835142615872</v>
+        <v>3.4744363317579894</v>
       </c>
       <c r="F157" s="2">
         <v>61.9816</v>
@@ -5524,7 +5524,7 @@
         <v>3015.1360800000002</v>
       </c>
       <c r="E158" s="2">
-        <v>3.4514286665297038</v>
+        <v>3.5257334385460801</v>
       </c>
       <c r="F158" s="2">
         <v>63.43647</v>
@@ -5556,7 +5556,7 @@
         <v>3019.2933499999999</v>
       </c>
       <c r="E159" s="2">
-        <v>3.5164810335504497</v>
+        <v>3.5896862146652184</v>
       </c>
       <c r="F159" s="2">
         <v>50.550109999999997</v>
@@ -5588,7 +5588,7 @@
         <v>2990.16824</v>
       </c>
       <c r="E160" s="2">
-        <v>4.9974567317322593</v>
+        <v>5.0403698146161284</v>
       </c>
       <c r="F160" s="2">
         <v>29.529540000000001</v>
@@ -5620,7 +5620,7 @@
         <v>3022.3491899999999</v>
       </c>
       <c r="E161" s="2">
-        <v>4.5512441598450772</v>
+        <v>4.5961475591544216</v>
       </c>
       <c r="F161" s="2">
         <v>42.956150000000001</v>
@@ -5652,7 +5652,7 @@
         <v>3026.1817500000002</v>
       </c>
       <c r="E162" s="2">
-        <v>4.2678014630152337</v>
+        <v>4.3387358778403957</v>
       </c>
       <c r="F162" s="2">
         <v>44.269300000000001</v>
@@ -5684,7 +5684,7 @@
         <v>3011.9945400000001</v>
       </c>
       <c r="E163" s="2">
-        <v>4.2137974459940422</v>
+        <v>4.2723363428582299</v>
       </c>
       <c r="F163" s="2">
         <v>60.775880000000001</v>
@@ -5716,7 +5716,7 @@
         <v>3053.2020299999999</v>
       </c>
       <c r="E164" s="2">
-        <v>3.7037591646039885</v>
+        <v>3.7482590683204191</v>
       </c>
       <c r="F164" s="2">
         <v>68.796099999999996</v>
@@ -5748,7 +5748,7 @@
         <v>3087.7042200000001</v>
       </c>
       <c r="E165" s="2">
-        <v>3.0765743779694028</v>
+        <v>3.1359481291026938</v>
       </c>
       <c r="F165" s="2">
         <v>73.461669999999998</v>
@@ -5780,7 +5780,7 @@
         <v>3105.1590500000002</v>
       </c>
       <c r="E166" s="2">
-        <v>2.5331168334195313</v>
+        <v>2.5759045556827318</v>
       </c>
       <c r="F166" s="2">
         <v>79.462999999999994</v>
@@ -5812,7 +5812,7 @@
         <v>3110.4208899999999</v>
       </c>
       <c r="E167" s="2">
-        <v>2.3266001920402486</v>
+        <v>2.365946693770741</v>
       </c>
       <c r="F167" s="2">
         <v>101.04073015873014</v>

--- a/data/inflation_DK_MONAlong.xlsx
+++ b/data/inflation_DK_MONAlong.xlsx
@@ -1159,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J167"/>
+  <dimension ref="A1:J168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A149" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I166" sqref="I166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1708,8 +1708,8 @@
       <c r="B19" s="4">
         <v>31137</v>
       </c>
-      <c r="C19" s="2">
-        <v>292.00549999999998</v>
+      <c r="C19">
+        <v>292.00558941274994</v>
       </c>
       <c r="D19" s="2">
         <v>2764.9462199999998</v>
@@ -1717,11 +1717,11 @@
       <c r="E19" s="2">
         <v>10.530385654492184</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19">
         <v>27.237580000000001</v>
       </c>
       <c r="G19">
-        <v>5.6611777268956303</v>
+        <v>5.6611556387007056</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -1731,8 +1731,8 @@
       <c r="B20" s="4">
         <v>31228</v>
       </c>
-      <c r="C20" s="2">
-        <v>296.40350000000001</v>
+      <c r="C20">
+        <v>296.40359075942757</v>
       </c>
       <c r="D20" s="2">
         <v>2773.60034</v>
@@ -1740,11 +1740,11 @@
       <c r="E20" s="2">
         <v>10.133071317212689</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20">
         <v>26.540880000000001</v>
       </c>
       <c r="G20">
-        <v>5.1731295308827612</v>
+        <v>5.1731219907111381</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
@@ -1754,8 +1754,8 @@
       <c r="B21" s="4">
         <v>31320</v>
       </c>
-      <c r="C21" s="2">
-        <v>302.65325000000001</v>
+      <c r="C21">
+        <v>302.65334267311528</v>
       </c>
       <c r="D21" s="2">
         <v>2780.2424500000002</v>
@@ -1763,11 +1763,11 @@
       <c r="E21" s="2">
         <v>9.6190783614504305</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21">
         <v>26.540880000000001</v>
       </c>
       <c r="G21">
-        <v>4.2547878494247726</v>
+        <v>4.2547897719323373</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
@@ -1777,8 +1777,8 @@
       <c r="B22" s="4">
         <v>31412</v>
       </c>
-      <c r="C22" s="2">
-        <v>308.81450000000001</v>
+      <c r="C22">
+        <v>308.81459455970406</v>
       </c>
       <c r="D22" s="2">
         <v>2779.3887500000001</v>
@@ -1786,11 +1786,11 @@
       <c r="E22" s="2">
         <v>9.0141510528321955</v>
       </c>
-      <c r="F22" s="2">
-        <v>27.469809999999999</v>
+      <c r="F22">
+        <v>28.403770491803279</v>
       </c>
       <c r="G22">
-        <v>3.7065207620131275</v>
+        <v>3.7065177491048473</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
@@ -1800,8 +1800,8 @@
       <c r="B23" s="4">
         <v>31502</v>
       </c>
-      <c r="C23" s="2">
-        <v>313.25324999999998</v>
+      <c r="C23">
+        <v>313.25334591885945</v>
       </c>
       <c r="D23" s="2">
         <v>2793.8634499999998</v>
@@ -1809,11 +1809,11 @@
       <c r="E23" s="2">
         <v>8.582677866990478</v>
       </c>
-      <c r="F23" s="2">
-        <v>17.782389999999999</v>
+      <c r="F23">
+        <v>18.070833333333329</v>
       </c>
       <c r="G23">
-        <v>2.1305506955536941</v>
+        <v>2.1305717370671005</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
@@ -1823,8 +1823,8 @@
       <c r="B24" s="4">
         <v>31593</v>
       </c>
-      <c r="C24" s="2">
-        <v>314.07049999999998</v>
+      <c r="C24">
+        <v>314.07059616910323</v>
       </c>
       <c r="D24" s="2">
         <v>2801.8074099999999</v>
@@ -1832,11 +1832,11 @@
       <c r="E24" s="2">
         <v>8.3915867677045721</v>
       </c>
-      <c r="F24" s="2">
-        <v>12.706440000000001</v>
+      <c r="F24">
+        <v>12.78524590163935</v>
       </c>
       <c r="G24">
-        <v>3.9545749914905457</v>
+        <v>3.9545758110864284</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
@@ -1846,8 +1846,8 @@
       <c r="B25" s="4">
         <v>31685</v>
       </c>
-      <c r="C25" s="2">
-        <v>315</v>
+      <c r="C25">
+        <v>315.0000964537183</v>
       </c>
       <c r="D25" s="2">
         <v>2799.2087099999999</v>
@@ -1855,11 +1855,11 @@
       <c r="E25" s="2">
         <v>8.339713968363121</v>
       </c>
-      <c r="F25" s="2">
-        <v>12.37468</v>
+      <c r="F25">
+        <v>12.27619047619047</v>
       </c>
       <c r="G25">
-        <v>4.1717245365749989</v>
+        <v>4.1717154976641098</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
@@ -1869,8 +1869,8 @@
       <c r="B26" s="4">
         <v>31777</v>
       </c>
-      <c r="C26" s="2">
-        <v>316.39825000000002</v>
+      <c r="C26">
+        <v>316.39834688186562</v>
       </c>
       <c r="D26" s="2">
         <v>2806.5557399999998</v>
@@ -1878,11 +1878,11 @@
       <c r="E26" s="2">
         <v>8.2851872990065196</v>
       </c>
-      <c r="F26" s="2">
-        <v>14.630660000000001</v>
+      <c r="F26">
+        <v>14.64365079365079</v>
       </c>
       <c r="G26">
-        <v>4.3627112183266945</v>
+        <v>4.3627009751484565</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
@@ -1892,8 +1892,8 @@
       <c r="B27" s="4">
         <v>31867</v>
       </c>
-      <c r="C27" s="2">
-        <v>312.02825000000001</v>
+      <c r="C27">
+        <v>312.02834554376165</v>
       </c>
       <c r="D27" s="2">
         <v>2802.7570500000002</v>
@@ -1901,11 +1901,11 @@
       <c r="E27" s="2">
         <v>8.3902420267249926</v>
       </c>
-      <c r="F27" s="2">
-        <v>17.616510000000002</v>
+      <c r="F27">
+        <v>17.883064516129039</v>
       </c>
       <c r="G27">
-        <v>4.9608442667157959</v>
+        <v>4.9608421873809476</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
@@ -1915,8 +1915,8 @@
       <c r="B28" s="4">
         <v>31958</v>
       </c>
-      <c r="C28" s="2">
-        <v>319.21199999999999</v>
+      <c r="C28">
+        <v>319.21209774344226</v>
       </c>
       <c r="D28" s="2">
         <v>2815.3772399999998</v>
@@ -1924,11 +1924,11 @@
       <c r="E28" s="2">
         <v>8.382198185141899</v>
       </c>
-      <c r="F28" s="2">
-        <v>18.578620000000001</v>
+      <c r="F28">
+        <v>18.670983606557389</v>
       </c>
       <c r="G28">
-        <v>3.3219748232191222</v>
+        <v>3.3219891923500455</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
@@ -1938,8 +1938,8 @@
       <c r="B29" s="4">
         <v>32050</v>
       </c>
-      <c r="C29" s="2">
-        <v>315.05275</v>
+      <c r="C29">
+        <v>315.05284646987047</v>
       </c>
       <c r="D29" s="2">
         <v>2819.57341</v>
@@ -1947,11 +1947,11 @@
       <c r="E29" s="2">
         <v>8.3192620232862602</v>
       </c>
-      <c r="F29" s="2">
-        <v>18.91038</v>
+      <c r="F29">
+        <v>19.084920634920628</v>
       </c>
       <c r="G29">
-        <v>3.8443474974906309</v>
+        <v>3.8443545260692531</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
@@ -1961,8 +1961,8 @@
       <c r="B30" s="4">
         <v>32142</v>
       </c>
-      <c r="C30" s="2">
-        <v>315.62900000000002</v>
+      <c r="C30">
+        <v>315.62909664631951</v>
       </c>
       <c r="D30" s="2">
         <v>2828.3074299999998</v>
@@ -1970,11 +1970,11 @@
       <c r="E30" s="2">
         <v>8.3297345054424525</v>
       </c>
-      <c r="F30" s="2">
-        <v>17.815570000000001</v>
+      <c r="F30">
+        <v>18.00403225806452</v>
       </c>
       <c r="G30">
-        <v>3.8746704474085902</v>
+        <v>3.8746847682326973</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
@@ -1984,8 +1984,8 @@
       <c r="B31" s="4">
         <v>32233</v>
       </c>
-      <c r="C31" s="2">
-        <v>315.58949999999999</v>
+      <c r="C31">
+        <v>315.58959663422451</v>
       </c>
       <c r="D31" s="2">
         <v>2815.5081500000001</v>
@@ -1993,11 +1993,11 @@
       <c r="E31" s="2">
         <v>8.7990404175172277</v>
       </c>
-      <c r="F31" s="2">
-        <v>15.72547</v>
+      <c r="F31">
+        <v>15.746666666666661</v>
       </c>
       <c r="G31">
-        <v>4.7997908811818775</v>
+        <v>4.7997851486545784</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
@@ -2007,8 +2007,8 @@
       <c r="B32" s="4">
         <v>32324</v>
       </c>
-      <c r="C32" s="2">
-        <v>316.35575</v>
+      <c r="C32">
+        <v>316.35584686885204</v>
       </c>
       <c r="D32" s="2">
         <v>2818.7068599999998</v>
@@ -2016,11 +2016,11 @@
       <c r="E32" s="2">
         <v>8.9058640161894296</v>
       </c>
-      <c r="F32" s="2">
-        <v>16.25629</v>
+      <c r="F32">
+        <v>16.197704918032791</v>
       </c>
       <c r="G32">
-        <v>4.6838891545560273</v>
+        <v>4.683889157394816</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -2030,8 +2030,8 @@
       <c r="B33" s="4">
         <v>32416</v>
       </c>
-      <c r="C33" s="2">
-        <v>310.85124999999999</v>
+      <c r="C33">
+        <v>310.85134518336156</v>
       </c>
       <c r="D33" s="2">
         <v>2817.3361399999999</v>
@@ -2039,11 +2039,11 @@
       <c r="E33" s="2">
         <v>9.0090527803900198</v>
       </c>
-      <c r="F33" s="2">
-        <v>14.36525</v>
+      <c r="F33">
+        <v>14.40238095238095</v>
       </c>
       <c r="G33">
-        <v>4.3613114830057782</v>
+        <v>4.3613116894753716</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -2053,8 +2053,8 @@
       <c r="B34" s="4">
         <v>32508</v>
       </c>
-      <c r="C34" s="2">
-        <v>318.95375000000001</v>
+      <c r="C34">
+        <v>318.95384766436558</v>
       </c>
       <c r="D34" s="2">
         <v>2836.0019600000001</v>
@@ -2062,11 +2062,11 @@
       <c r="E34" s="2">
         <v>9.6577471943051751</v>
       </c>
-      <c r="F34" s="2">
-        <v>13.303610000000001</v>
+      <c r="F34">
+        <v>13.489677419354839</v>
       </c>
       <c r="G34">
-        <v>4.4461434150379517</v>
+        <v>4.4461397905026843</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -2076,8 +2076,8 @@
       <c r="B35" s="4">
         <v>32598</v>
       </c>
-      <c r="C35" s="2">
-        <v>322.73950000000002</v>
+      <c r="C35">
+        <v>322.73959882357087</v>
       </c>
       <c r="D35" s="2">
         <v>2834.6161900000002</v>
@@ -2085,11 +2085,11 @@
       <c r="E35" s="2">
         <v>9.9491317562613766</v>
       </c>
-      <c r="F35" s="2">
-        <v>16.551559999999998</v>
+      <c r="F35">
+        <v>17.446721311475411</v>
       </c>
       <c r="G35">
-        <v>4.4998585883649866</v>
+        <v>4.4998644400274941</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -2099,8 +2099,8 @@
       <c r="B36" s="4">
         <v>32689</v>
       </c>
-      <c r="C36" s="2">
-        <v>316.71350000000001</v>
+      <c r="C36">
+        <v>316.71359697839591</v>
       </c>
       <c r="D36" s="2">
         <v>2833.9809700000001</v>
@@ -2108,11 +2108,11 @@
       <c r="E36" s="2">
         <v>10.103497617087788</v>
       </c>
-      <c r="F36" s="2">
-        <v>18.353020000000001</v>
+      <c r="F36">
+        <v>18.519047619047619</v>
       </c>
       <c r="G36">
-        <v>4.8086084707734074</v>
+        <v>4.8086109613795003</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -2122,8 +2122,8 @@
       <c r="B37" s="4">
         <v>32781</v>
       </c>
-      <c r="C37" s="2">
-        <v>312.42250000000001</v>
+      <c r="C37">
+        <v>312.42259566448189</v>
       </c>
       <c r="D37" s="2">
         <v>2829.9927200000002</v>
@@ -2131,11 +2131,11 @@
       <c r="E37" s="2">
         <v>10.151580885528883</v>
       </c>
-      <c r="F37" s="2">
-        <v>17.40418</v>
+      <c r="F37">
+        <v>17.515873015873019</v>
       </c>
       <c r="G37">
-        <v>4.8391488058078522</v>
+        <v>4.8391517474763077</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -2145,8 +2145,8 @@
       <c r="B38" s="4">
         <v>32873</v>
       </c>
-      <c r="C38" s="2">
-        <v>318.01575000000003</v>
+      <c r="C38">
+        <v>318.01584737714785</v>
       </c>
       <c r="D38" s="2">
         <v>2845.0467600000002</v>
@@ -2154,11 +2154,11 @@
       <c r="E38" s="2">
         <v>10.203322643477094</v>
       </c>
-      <c r="F38" s="2">
-        <v>18.953510000000001</v>
+      <c r="F38">
+        <v>19.337096774193551</v>
       </c>
       <c r="G38">
-        <v>4.8816734207748738</v>
+        <v>4.8816639354056122</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -2168,8 +2168,8 @@
       <c r="B39" s="4">
         <v>32963</v>
       </c>
-      <c r="C39" s="2">
-        <v>318.50225</v>
+      <c r="C39">
+        <v>318.50234752611522</v>
       </c>
       <c r="D39" s="2">
         <v>2839.72676</v>
@@ -2177,11 +2177,11 @@
       <c r="E39" s="2">
         <v>10.303142686868931</v>
       </c>
-      <c r="F39" s="2">
-        <v>19.392759999999999</v>
+      <c r="F39">
+        <v>19.75634920634921</v>
       </c>
       <c r="G39">
-        <v>3.2952876645327933</v>
+        <v>3.2952793015529807</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -2191,8 +2191,8 @@
       <c r="B40" s="4">
         <v>33054</v>
       </c>
-      <c r="C40" s="2">
-        <v>327.60975000000002</v>
+      <c r="C40">
+        <v>327.60985031485251</v>
       </c>
       <c r="D40" s="2">
         <v>2820.7603199999999</v>
@@ -2200,11 +2200,11 @@
       <c r="E40" s="2">
         <v>10.545780791471145</v>
       </c>
-      <c r="F40" s="2">
-        <v>16.706489999999999</v>
+      <c r="F40">
+        <v>16.404590163934429</v>
       </c>
       <c r="G40">
-        <v>2.9347045525879594</v>
+        <v>2.9347052154541302</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -2214,8 +2214,8 @@
       <c r="B41" s="4">
         <v>33146</v>
       </c>
-      <c r="C41" s="2">
-        <v>321.68799999999999</v>
+      <c r="C41">
+        <v>321.68809850159914</v>
       </c>
       <c r="D41" s="2">
         <v>2825.0945499999998</v>
@@ -2223,11 +2223,11 @@
       <c r="E41" s="2">
         <v>10.841141582323324</v>
       </c>
-      <c r="F41" s="2">
-        <v>25.432469999999999</v>
+      <c r="F41">
+        <v>26.11587301587301</v>
       </c>
       <c r="G41">
-        <v>2.7129793859667046</v>
+        <v>2.712977276731948</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -2237,8 +2237,8 @@
       <c r="B42" s="4">
         <v>33238</v>
       </c>
-      <c r="C42" s="2">
-        <v>320.82499999999999</v>
+      <c r="C42">
+        <v>320.82509823734654</v>
       </c>
       <c r="D42" s="2">
         <v>2854.0498899999998</v>
@@ -2246,11 +2246,11 @@
       <c r="E42" s="2">
         <v>10.957776214626719</v>
       </c>
-      <c r="F42" s="2">
-        <v>30.91018</v>
+      <c r="F42">
+        <v>32.744444444444447</v>
       </c>
       <c r="G42">
-        <v>2.5286105042068954</v>
+        <v>2.5286091908405695</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -2260,8 +2260,8 @@
       <c r="B43" s="4">
         <v>33328</v>
       </c>
-      <c r="C43" s="2">
-        <v>326.58150000000001</v>
+      <c r="C43">
+        <v>326.58159999999998</v>
       </c>
       <c r="D43" s="2">
         <v>2816.3233700000001</v>
@@ -2269,11 +2269,11 @@
       <c r="E43" s="2">
         <v>11.382758933680263</v>
       </c>
-      <c r="F43" s="2">
-        <v>19.938839999999999</v>
+      <c r="F43">
+        <v>20.9460655737705</v>
       </c>
       <c r="G43">
-        <v>2.6986049614920518</v>
+        <v>2.698603419063744</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -2283,8 +2283,8 @@
       <c r="B44" s="4">
         <v>33419</v>
       </c>
-      <c r="C44" s="2">
-        <v>325.35199999999998</v>
+      <c r="C44">
+        <v>325.35210000000001</v>
       </c>
       <c r="D44" s="2">
         <v>2823.1937600000001</v>
@@ -2292,11 +2292,11 @@
       <c r="E44" s="2">
         <v>11.723481565076852</v>
       </c>
-      <c r="F44" s="2">
-        <v>18.917020000000001</v>
+      <c r="F44">
+        <v>18.867460317460321</v>
       </c>
       <c r="G44">
-        <v>2.4187014447753796</v>
+        <v>2.4186971655892648</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -2306,8 +2306,8 @@
       <c r="B45" s="4">
         <v>33511</v>
       </c>
-      <c r="C45" s="2">
-        <v>329.48775000000001</v>
+      <c r="C45">
+        <v>329.48779999999999</v>
       </c>
       <c r="D45" s="2">
         <v>2839.9344299999998</v>
@@ -2315,11 +2315,11 @@
       <c r="E45" s="2">
         <v>11.917342049337387</v>
       </c>
-      <c r="F45" s="2">
-        <v>19.79618</v>
+      <c r="F45">
+        <v>19.888095238095239</v>
       </c>
       <c r="G45">
-        <v>2.3314269962423992</v>
+        <v>2.3314355076017108</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -2329,8 +2329,8 @@
       <c r="B46" s="4">
         <v>33603</v>
       </c>
-      <c r="C46" s="2">
-        <v>325.16250000000002</v>
+      <c r="C46">
+        <v>325.16239999999999</v>
       </c>
       <c r="D46" s="2">
         <v>2874.9150800000002</v>
@@ -2338,11 +2338,11 @@
       <c r="E46" s="2">
         <v>12.068993008308263</v>
       </c>
-      <c r="F46" s="2">
-        <v>20.373449999999998</v>
+      <c r="F46">
+        <v>20.630468749999999</v>
       </c>
       <c r="G46">
-        <v>2.1993192621444706</v>
+        <v>2.199319458510459</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -2352,8 +2352,8 @@
       <c r="B47" s="4">
         <v>33694</v>
       </c>
-      <c r="C47" s="2">
-        <v>331.05775</v>
+      <c r="C47">
+        <v>331.05779999999999</v>
       </c>
       <c r="D47" s="2">
         <v>2837.8703300000002</v>
@@ -2361,11 +2361,11 @@
       <c r="E47" s="2">
         <v>12.336285992320162</v>
       </c>
-      <c r="F47" s="2">
-        <v>17.81889</v>
+      <c r="F47">
+        <v>17.970634920634922</v>
       </c>
       <c r="G47">
-        <v>2.298126069694618</v>
+        <v>2.2981438567465773</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -2375,8 +2375,8 @@
       <c r="B48" s="4">
         <v>33785</v>
       </c>
-      <c r="C48" s="2">
-        <v>329.09949999999998</v>
+      <c r="C48">
+        <v>329.0994</v>
       </c>
       <c r="D48" s="2">
         <v>2834.8643099999999</v>
@@ -2384,11 +2384,11 @@
       <c r="E48" s="2">
         <v>12.441054012916759</v>
       </c>
-      <c r="F48" s="2">
-        <v>19.839310000000001</v>
+      <c r="F48">
+        <v>20.012380952380951</v>
       </c>
       <c r="G48">
-        <v>2.4455403034697696</v>
+        <v>2.4455512729800262</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -2398,8 +2398,8 @@
       <c r="B49" s="4">
         <v>33877</v>
       </c>
-      <c r="C49" s="2">
-        <v>337.30149999999998</v>
+      <c r="C49">
+        <v>337.3014</v>
       </c>
       <c r="D49" s="2">
         <v>2834.3765100000001</v>
@@ -2407,11 +2407,11 @@
       <c r="E49" s="2">
         <v>12.581458346901131</v>
       </c>
-      <c r="F49" s="2">
-        <v>20.111350000000002</v>
+      <c r="F49">
+        <v>20.076060606060601</v>
       </c>
       <c r="G49">
-        <v>2.0996747615104994</v>
+        <v>2.099657167085951</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -2421,8 +2421,8 @@
       <c r="B50" s="4">
         <v>33969</v>
       </c>
-      <c r="C50" s="2">
-        <v>334.69499999999999</v>
+      <c r="C50">
+        <v>334.69510000000002</v>
       </c>
       <c r="D50" s="2">
         <v>2841.0887600000001</v>
@@ -2430,11 +2430,11 @@
       <c r="E50" s="2">
         <v>13.024137267714227</v>
       </c>
-      <c r="F50" s="2">
-        <v>19.195689999999999</v>
+      <c r="F50">
+        <v>19.176818181818181</v>
       </c>
       <c r="G50">
-        <v>1.547140367626227</v>
+        <v>1.5471430808390778</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -2444,7 +2444,7 @@
       <c r="B51" s="4">
         <v>34059</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51">
         <v>331.99450000000002</v>
       </c>
       <c r="D51" s="2">
@@ -2453,11 +2453,11 @@
       <c r="E51" s="2">
         <v>13.480499204024909</v>
       </c>
-      <c r="F51" s="2">
-        <v>18.267109999999999</v>
+      <c r="F51">
+        <v>18.217936507936511</v>
       </c>
       <c r="G51">
-        <v>1.302513135886386</v>
+        <v>1.2822159443650207</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -2467,8 +2467,8 @@
       <c r="B52" s="4">
         <v>34150</v>
       </c>
-      <c r="C52" s="2">
-        <v>330.35</v>
+      <c r="C52">
+        <v>330.34989999999999</v>
       </c>
       <c r="D52" s="2">
         <v>2827.0625399999999</v>
@@ -2476,11 +2476,11 @@
       <c r="E52" s="2">
         <v>13.848176135502118</v>
       </c>
-      <c r="F52" s="2">
-        <v>18.51193</v>
+      <c r="F52">
+        <v>18.203230769230771</v>
       </c>
       <c r="G52">
-        <v>0.95532249590404206</v>
+        <v>0.96642414577739544</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -2490,8 +2490,8 @@
       <c r="B53" s="4">
         <v>34242</v>
       </c>
-      <c r="C53" s="2">
-        <v>333.83199999999999</v>
+      <c r="C53">
+        <v>333.83190000000002</v>
       </c>
       <c r="D53" s="2">
         <v>2809.3939700000001</v>
@@ -2499,11 +2499,11 @@
       <c r="E53" s="2">
         <v>13.927950446907236</v>
       </c>
-      <c r="F53" s="2">
-        <v>16.679030000000001</v>
+      <c r="F53">
+        <v>16.47727272727272</v>
       </c>
       <c r="G53">
-        <v>1.2475201810331384</v>
+        <v>1.2049608483998497</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -2513,8 +2513,8 @@
       <c r="B54" s="4">
         <v>34334</v>
       </c>
-      <c r="C54" s="2">
-        <v>336.11975000000001</v>
+      <c r="C54">
+        <v>336.1198</v>
       </c>
       <c r="D54" s="2">
         <v>2798.7609400000001</v>
@@ -2522,11 +2522,11 @@
       <c r="E54" s="2">
         <v>14.196303597119659</v>
       </c>
-      <c r="F54" s="2">
-        <v>15.417540000000001</v>
+      <c r="F54">
+        <v>15.01969230769231</v>
       </c>
       <c r="G54">
-        <v>1.5223878121257712</v>
+        <v>1.5189423906346633</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -2536,8 +2536,8 @@
       <c r="B55" s="4">
         <v>34424</v>
       </c>
-      <c r="C55" s="2">
-        <v>343.92250000000001</v>
+      <c r="C55">
+        <v>343.92239999999998</v>
       </c>
       <c r="D55" s="2">
         <v>2825.8794400000002</v>
@@ -2545,11 +2545,11 @@
       <c r="E55" s="2">
         <v>14.095548251697531</v>
       </c>
-      <c r="F55" s="2">
-        <v>13.850580000000001</v>
+      <c r="F55">
+        <v>13.93174603174603</v>
       </c>
       <c r="G55">
-        <v>1.733720885978272</v>
+        <v>1.7731695442507913</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -2559,8 +2559,8 @@
       <c r="B56" s="4">
         <v>34515</v>
       </c>
-      <c r="C56" s="2">
-        <v>349.80500000000001</v>
+      <c r="C56">
+        <v>349.80509999999998</v>
       </c>
       <c r="D56" s="2">
         <v>2823.0671600000001</v>
@@ -2568,11 +2568,11 @@
       <c r="E56" s="2">
         <v>13.876988317911643</v>
       </c>
-      <c r="F56" s="2">
-        <v>15.8894</v>
+      <c r="F56">
+        <v>15.96984615384615</v>
       </c>
       <c r="G56">
-        <v>1.9930792262678523</v>
+        <v>2.0037288190690532</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -2582,8 +2582,8 @@
       <c r="B57" s="4">
         <v>34607</v>
       </c>
-      <c r="C57" s="2">
-        <v>351.81774999999999</v>
+      <c r="C57">
+        <v>351.81760000000003</v>
       </c>
       <c r="D57" s="2">
         <v>2806.6736099999998</v>
@@ -2591,11 +2591,11 @@
       <c r="E57" s="2">
         <v>13.26133892711522</v>
       </c>
-      <c r="F57" s="2">
-        <v>16.842459999999999</v>
+      <c r="F57">
+        <v>16.695454545454549</v>
       </c>
       <c r="G57">
-        <v>2.0827164932832716</v>
+        <v>2.0671316355034435</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -2605,8 +2605,8 @@
       <c r="B58" s="4">
         <v>34699</v>
       </c>
-      <c r="C58" s="2">
-        <v>357.79525000000001</v>
+      <c r="C58">
+        <v>357.79520000000002</v>
       </c>
       <c r="D58" s="2">
         <v>2799.7305200000001</v>
@@ -2614,11 +2614,11 @@
       <c r="E58" s="2">
         <v>12.53677443213356</v>
       </c>
-      <c r="F58" s="2">
-        <v>16.608750000000001</v>
+      <c r="F58">
+        <v>16.52584615384615</v>
       </c>
       <c r="G58">
-        <v>2.0942645434306968</v>
+        <v>2.0195170504981235</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -2628,7 +2628,7 @@
       <c r="B59" s="4">
         <v>34789</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59">
         <v>360.82</v>
       </c>
       <c r="D59" s="2">
@@ -2637,11 +2637,11 @@
       <c r="E59" s="2">
         <v>11.745485081964164</v>
       </c>
-      <c r="F59" s="2">
-        <v>16.805479999999999</v>
+      <c r="F59">
+        <v>16.85140625</v>
       </c>
       <c r="G59">
-        <v>2.3654506219740625</v>
+        <v>2.4352633078117236</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -2651,8 +2651,8 @@
       <c r="B60" s="4">
         <v>34880</v>
       </c>
-      <c r="C60" s="2">
-        <v>359.78775000000002</v>
+      <c r="C60">
+        <v>359.78769999999997</v>
       </c>
       <c r="D60" s="2">
         <v>2790.9003499999999</v>
@@ -2660,11 +2660,11 @@
       <c r="E60" s="2">
         <v>11.265332350544153</v>
       </c>
-      <c r="F60" s="2">
-        <v>18.027940000000001</v>
+      <c r="F60">
+        <v>18.083593749999999</v>
       </c>
       <c r="G60">
-        <v>2.0044433364778627</v>
+        <v>2.0712660582015161</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -2674,8 +2674,8 @@
       <c r="B61" s="4">
         <v>34972</v>
       </c>
-      <c r="C61" s="2">
-        <v>361.28825000000001</v>
+      <c r="C61">
+        <v>361.28820000000002</v>
       </c>
       <c r="D61" s="2">
         <v>2779.8141500000002</v>
@@ -2683,11 +2683,11 @@
       <c r="E61" s="2">
         <v>10.959380144172586</v>
       </c>
-      <c r="F61" s="2">
-        <v>16.182749999999999</v>
+      <c r="F61">
+        <v>16.17938461538462</v>
       </c>
       <c r="G61">
-        <v>1.5683838171306235</v>
+        <v>1.7149908273267727</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -2697,8 +2697,8 @@
       <c r="B62" s="4">
         <v>35064</v>
       </c>
-      <c r="C62" s="2">
-        <v>363.93175000000002</v>
+      <c r="C62">
+        <v>363.93169999999998</v>
       </c>
       <c r="D62" s="2">
         <v>2762.2802000000001</v>
@@ -2706,11 +2706,11 @@
       <c r="E62" s="2">
         <v>10.501574025690804</v>
       </c>
-      <c r="F62" s="2">
-        <v>16.931819999999998</v>
+      <c r="F62">
+        <v>16.873492063492069</v>
       </c>
       <c r="G62">
-        <v>1.6493548959781492</v>
+        <v>1.8157635055756884</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -2720,8 +2720,8 @@
       <c r="B63" s="4">
         <v>35155</v>
       </c>
-      <c r="C63" s="2">
-        <v>363.98649999999998</v>
+      <c r="C63">
+        <v>363.9864</v>
       </c>
       <c r="D63" s="2">
         <v>2760.1368200000002</v>
@@ -2729,11 +2729,11 @@
       <c r="E63" s="2">
         <v>9.879481264265733</v>
       </c>
-      <c r="F63" s="2">
-        <v>18.55444</v>
+      <c r="F63">
+        <v>18.509531249999998</v>
       </c>
       <c r="G63">
-        <v>1.6688814311217186</v>
+        <v>1.6688951416548292</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -2743,8 +2743,8 @@
       <c r="B64" s="4">
         <v>35246</v>
       </c>
-      <c r="C64" s="2">
-        <v>373.84325000000001</v>
+      <c r="C64">
+        <v>373.84320000000002</v>
       </c>
       <c r="D64" s="2">
         <v>2781.68631</v>
@@ -2752,11 +2752,11 @@
       <c r="E64" s="2">
         <v>9.7921573335132805</v>
       </c>
-      <c r="F64" s="2">
-        <v>19.489470000000001</v>
+      <c r="F64">
+        <v>19.443174603174612</v>
       </c>
       <c r="G64">
-        <v>1.9256100961533349</v>
+        <v>1.9657893754271782</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
@@ -2766,7 +2766,7 @@
       <c r="B65" s="4">
         <v>35338</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65">
         <v>374.90050000000002</v>
       </c>
       <c r="D65" s="2">
@@ -2775,11 +2775,11 @@
       <c r="E65" s="2">
         <v>9.5002236027984317</v>
       </c>
-      <c r="F65" s="2">
-        <v>20.851459999999999</v>
+      <c r="F65">
+        <v>20.783636363636361</v>
       </c>
       <c r="G65">
-        <v>2.366285489885442</v>
+        <v>2.3211406834319206</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
@@ -2789,7 +2789,7 @@
       <c r="B66" s="4">
         <v>35430</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66">
         <v>375.02800000000002</v>
       </c>
       <c r="D66" s="2">
@@ -2798,11 +2798,11 @@
       <c r="E66" s="2">
         <v>9.3749925091406752</v>
       </c>
-      <c r="F66" s="2">
-        <v>23.526679999999999</v>
+      <c r="F66">
+        <v>23.482343749999998</v>
       </c>
       <c r="G66">
-        <v>2.3876308736625589</v>
+        <v>2.3759545016646513</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
@@ -2812,7 +2812,7 @@
       <c r="B67" s="4">
         <v>35520</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67">
         <v>379.73500000000001</v>
       </c>
       <c r="D67" s="2">
@@ -2821,11 +2821,11 @@
       <c r="E67" s="2">
         <v>8.9499036609554654</v>
       </c>
-      <c r="F67" s="2">
-        <v>21.188590000000001</v>
+      <c r="F67">
+        <v>21.489354838709691</v>
       </c>
       <c r="G67">
-        <v>2.1166870491859981</v>
+        <v>2.1156582692188692</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
@@ -2835,8 +2835,8 @@
       <c r="B68" s="4">
         <v>35611</v>
       </c>
-      <c r="C68" s="2">
-        <v>386.25675000000001</v>
+      <c r="C68">
+        <v>386.25689999999997</v>
       </c>
       <c r="D68" s="2">
         <v>2806.2199000000001</v>
@@ -2844,11 +2844,11 @@
       <c r="E68" s="2">
         <v>8.7883561797847705</v>
       </c>
-      <c r="F68" s="2">
-        <v>18.063929999999999</v>
+      <c r="F68">
+        <v>18.030769230769231</v>
       </c>
       <c r="G68">
-        <v>2.1376557904130919</v>
+        <v>2.0460012660558249</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
@@ -2858,7 +2858,7 @@
       <c r="B69" s="4">
         <v>35703</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69">
         <v>385.16649999999998</v>
       </c>
       <c r="D69" s="2">
@@ -2867,11 +2867,11 @@
       <c r="E69" s="2">
         <v>8.4774415749563019</v>
       </c>
-      <c r="F69" s="2">
-        <v>18.430420000000002</v>
+      <c r="F69">
+        <v>18.45920634920634</v>
       </c>
       <c r="G69">
-        <v>1.9681360886679045</v>
+        <v>1.9554300483549838</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
@@ -2881,8 +2881,8 @@
       <c r="B70" s="4">
         <v>35795</v>
       </c>
-      <c r="C70" s="2">
-        <v>385.11399999999998</v>
+      <c r="C70">
+        <v>385.1139</v>
       </c>
       <c r="D70" s="2">
         <v>2808.6781900000001</v>
@@ -2890,11 +2890,11 @@
       <c r="E70" s="2">
         <v>8.1002124348037192</v>
       </c>
-      <c r="F70" s="2">
-        <v>18.745650000000001</v>
+      <c r="F70">
+        <v>18.75796875</v>
       </c>
       <c r="G70">
-        <v>1.6165767728668783</v>
+        <v>1.6193873323005761</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
@@ -2904,8 +2904,8 @@
       <c r="B71" s="4">
         <v>35885</v>
       </c>
-      <c r="C71" s="2">
-        <v>390.9205</v>
+      <c r="C71">
+        <v>390.92059999999998</v>
       </c>
       <c r="D71" s="2">
         <v>2792.55897</v>
@@ -2913,11 +2913,11 @@
       <c r="E71" s="2">
         <v>7.8042935651955094</v>
       </c>
-      <c r="F71" s="2">
-        <v>14.1904</v>
+      <c r="F71">
+        <v>14.07603174603174</v>
       </c>
       <c r="G71">
-        <v>1.6424938171540191</v>
+        <v>1.6097807750616653</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
@@ -2927,8 +2927,8 @@
       <c r="B72" s="4">
         <v>35976</v>
       </c>
-      <c r="C72" s="2">
-        <v>387.96825000000001</v>
+      <c r="C72">
+        <v>387.9683</v>
       </c>
       <c r="D72" s="2">
         <v>2798.7469999999998</v>
@@ -2936,11 +2936,11 @@
       <c r="E72" s="2">
         <v>7.4229003193214682</v>
       </c>
-      <c r="F72" s="2">
-        <v>13.34919</v>
+      <c r="F72">
+        <v>13.515937499999991</v>
       </c>
       <c r="G72">
-        <v>1.3904773206843117</v>
+        <v>1.4028960530909416</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
@@ -2950,7 +2950,7 @@
       <c r="B73" s="4">
         <v>36068</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73">
         <v>395.09649999999999</v>
       </c>
       <c r="D73" s="2">
@@ -2959,11 +2959,11 @@
       <c r="E73" s="2">
         <v>7.2846898077613575</v>
       </c>
-      <c r="F73" s="2">
-        <v>12.4283</v>
+      <c r="F73">
+        <v>12.383636363636359</v>
       </c>
       <c r="G73">
-        <v>1.161144938608885</v>
+        <v>1.1446479108383869</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
@@ -2973,8 +2973,8 @@
       <c r="B74" s="4">
         <v>36160</v>
       </c>
-      <c r="C74" s="2">
-        <v>396.36374999999998</v>
+      <c r="C74">
+        <v>396.36380000000003</v>
       </c>
       <c r="D74" s="2">
         <v>2820.3229299999998</v>
@@ -2982,11 +2982,11 @@
       <c r="E74" s="2">
         <v>7.0069848348891002</v>
       </c>
-      <c r="F74" s="2">
-        <v>11.23766</v>
+      <c r="F74">
+        <v>11.22859375</v>
       </c>
       <c r="G74">
-        <v>1.052331364091259</v>
+        <v>1.1013268990972165</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
@@ -2996,7 +2996,7 @@
       <c r="B75" s="4">
         <v>36250</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75">
         <v>399.95499999999998</v>
       </c>
       <c r="D75" s="2">
@@ -3005,11 +3005,11 @@
       <c r="E75" s="2">
         <v>7.045742315496617</v>
       </c>
-      <c r="F75" s="2">
-        <v>11.300319999999999</v>
+      <c r="F75">
+        <v>11.30666666666666</v>
       </c>
       <c r="G75">
-        <v>1.3394212088144997</v>
+        <v>1.349190456620434</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
@@ -3019,8 +3019,8 @@
       <c r="B76" s="4">
         <v>36341</v>
       </c>
-      <c r="C76" s="2">
-        <v>402.02024999999998</v>
+      <c r="C76">
+        <v>402.02030000000002</v>
       </c>
       <c r="D76" s="2">
         <v>2814.78215</v>
@@ -3028,11 +3028,11 @@
       <c r="E76" s="2">
         <v>7.055582153161609</v>
       </c>
-      <c r="F76" s="2">
-        <v>15.47588</v>
+      <c r="F76">
+        <v>15.24096774193548</v>
       </c>
       <c r="G76">
-        <v>1.7520064249457903</v>
+        <v>1.6919187054390363</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
@@ -3042,7 +3042,7 @@
       <c r="B77" s="4">
         <v>36433</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77">
         <v>404.505</v>
       </c>
       <c r="D77" s="2">
@@ -3051,11 +3051,11 @@
       <c r="E77" s="2">
         <v>6.9639247733271308</v>
       </c>
-      <c r="F77" s="2">
-        <v>20.623950000000001</v>
+      <c r="F77">
+        <v>19.600303030303031</v>
       </c>
       <c r="G77">
-        <v>2.305297281022689</v>
+        <v>2.3594322050376775</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
@@ -3065,8 +3065,8 @@
       <c r="B78" s="4">
         <v>36525</v>
       </c>
-      <c r="C78" s="2">
-        <v>410.16325000000001</v>
+      <c r="C78">
+        <v>410.16320000000002</v>
       </c>
       <c r="D78" s="2">
         <v>2826.1518799999999</v>
@@ -3074,11 +3074,11 @@
       <c r="E78" s="2">
         <v>6.9371792688852425</v>
       </c>
-      <c r="F78" s="2">
-        <v>24.06193</v>
+      <c r="F78">
+        <v>22.66079365079365</v>
       </c>
       <c r="G78">
-        <v>2.8393839378354073</v>
+        <v>2.7564749066784344</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
@@ -3088,8 +3088,8 @@
       <c r="B79" s="4">
         <v>36616</v>
       </c>
-      <c r="C79" s="2">
-        <v>414.16264782665729</v>
+      <c r="C79">
+        <v>414.16269999999997</v>
       </c>
       <c r="D79" s="2">
         <v>2841.4554199999998</v>
@@ -3097,11 +3097,11 @@
       <c r="E79" s="2">
         <v>6.8577363507956592</v>
       </c>
-      <c r="F79" s="2">
-        <v>26.854669999999999</v>
+      <c r="F79">
+        <v>24.15140624999999</v>
       </c>
       <c r="G79">
-        <v>2.8320110789358495</v>
+        <v>2.8466829903091906</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
@@ -3111,8 +3111,8 @@
       <c r="B80" s="4">
         <v>36707</v>
       </c>
-      <c r="C80" s="2">
-        <v>418.87737267657445</v>
+      <c r="C80">
+        <v>418.87759999999997</v>
       </c>
       <c r="D80" s="2">
         <v>2832.9541399999998</v>
@@ -3120,11 +3120,11 @@
       <c r="E80" s="2">
         <v>6.816208454290952</v>
       </c>
-      <c r="F80" s="2">
-        <v>26.7271</v>
+      <c r="F80">
+        <v>25.116612903225811</v>
       </c>
       <c r="G80">
-        <v>2.8446006807234312</v>
+        <v>2.9008216270531477</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
@@ -3134,8 +3134,8 @@
       <c r="B81" s="4">
         <v>36799</v>
       </c>
-      <c r="C81" s="2">
-        <v>420.03467182112092</v>
+      <c r="C81">
+        <v>420.03469999999999</v>
       </c>
       <c r="D81" s="2">
         <v>2837.2400200000002</v>
@@ -3143,11 +3143,11 @@
       <c r="E81" s="2">
         <v>6.7152332055147204</v>
       </c>
-      <c r="F81" s="2">
-        <v>30.611660000000001</v>
+      <c r="F81">
+        <v>27.636153846153839</v>
       </c>
       <c r="G81">
-        <v>2.5643494520912498</v>
+        <v>2.575116680913041</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
@@ -3157,8 +3157,8 @@
       <c r="B82" s="4">
         <v>36891</v>
       </c>
-      <c r="C82" s="2">
-        <v>424.14172989204019</v>
+      <c r="C82">
+        <v>424.14179999999999</v>
       </c>
       <c r="D82" s="2">
         <v>2833.5366399999998</v>
@@ -3166,11 +3166,11 @@
       <c r="E82" s="2">
         <v>6.6085994552788376</v>
       </c>
-      <c r="F82" s="2">
-        <v>29.536709999999999</v>
+      <c r="F82">
+        <v>28.292741935483861</v>
       </c>
       <c r="G82">
-        <v>2.6058629873844552</v>
+        <v>2.6860723584645001</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
@@ -3180,8 +3180,8 @@
       <c r="B83" s="4">
         <v>36981</v>
       </c>
-      <c r="C83" s="2">
-        <v>419.53671667627532</v>
+      <c r="C83">
+        <v>419.53680000000003</v>
       </c>
       <c r="D83" s="2">
         <v>2855.3015300000002</v>
@@ -3189,11 +3189,11 @@
       <c r="E83" s="2">
         <v>6.5081409987502559</v>
       </c>
-      <c r="F83" s="2">
-        <v>25.82788</v>
+      <c r="F83">
+        <v>23.592343750000001</v>
       </c>
       <c r="G83">
-        <v>2.3057662327640998</v>
+        <v>2.2862814709695414</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
@@ -3203,8 +3203,8 @@
       <c r="B84" s="4">
         <v>37072</v>
       </c>
-      <c r="C84" s="2">
-        <v>421.5849252272954</v>
+      <c r="C84">
+        <v>421.5849</v>
       </c>
       <c r="D84" s="2">
         <v>2856.8195099999998</v>
@@ -3212,11 +3212,11 @@
       <c r="E84" s="2">
         <v>6.3410173827293459</v>
       </c>
-      <c r="F84" s="2">
-        <v>27.325980000000001</v>
+      <c r="F84">
+        <v>25.09875000000001</v>
       </c>
       <c r="G84">
-        <v>2.5552785864677503</v>
+        <v>2.5257007911293243</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
@@ -3226,8 +3226,8 @@
       <c r="B85" s="4">
         <v>37164</v>
       </c>
-      <c r="C85" s="2">
-        <v>425.36995260441074</v>
+      <c r="C85">
+        <v>425.37</v>
       </c>
       <c r="D85" s="2">
         <v>2846.2370900000001</v>
@@ -3235,11 +3235,11 @@
       <c r="E85" s="2">
         <v>6.2614318653266636</v>
       </c>
-      <c r="F85" s="2">
-        <v>25.315059999999999</v>
+      <c r="F85">
+        <v>24.808870967741949</v>
       </c>
       <c r="G85">
-        <v>2.3553525374408366</v>
+        <v>2.3458724140881202</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
@@ -3249,8 +3249,8 @@
       <c r="B86" s="4">
         <v>37256</v>
       </c>
-      <c r="C86" s="2">
-        <v>424.53115291785957</v>
+      <c r="C86">
+        <v>424.53109999999998</v>
       </c>
       <c r="D86" s="2">
         <v>2852.8621600000001</v>
@@ -3258,11 +3258,11 @@
       <c r="E86" s="2">
         <v>6.2068696565408432</v>
       </c>
-      <c r="F86" s="2">
-        <v>19.338339999999999</v>
+      <c r="F86">
+        <v>19.390468749999989</v>
       </c>
       <c r="G86">
-        <v>1.9874608269834226</v>
+        <v>1.9228543823015372</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
@@ -3272,8 +3272,8 @@
       <c r="B87" s="4">
         <v>37346</v>
       </c>
-      <c r="C87" s="2">
-        <v>424.38876224703091</v>
+      <c r="C87">
+        <v>424.3886</v>
       </c>
       <c r="D87" s="2">
         <v>2855.0302999999999</v>
@@ -3281,11 +3281,11 @@
       <c r="E87" s="2">
         <v>6.3369830026636418</v>
       </c>
-      <c r="F87" s="2">
-        <v>21.127680000000002</v>
+      <c r="F87">
+        <v>21.014833333333328</v>
       </c>
       <c r="G87">
-        <v>2.4083105810524899</v>
+        <v>2.4142081894963212</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
@@ -3295,8 +3295,8 @@
       <c r="B88" s="4">
         <v>37437</v>
       </c>
-      <c r="C88" s="2">
-        <v>424.34647201804802</v>
+      <c r="C88">
+        <v>424.34649999999999</v>
       </c>
       <c r="D88" s="2">
         <v>2859.4812700000002</v>
@@ -3304,11 +3304,11 @@
       <c r="E88" s="2">
         <v>6.2981914739625182</v>
       </c>
-      <c r="F88" s="2">
-        <v>25.051449999999999</v>
+      <c r="F88">
+        <v>25.078095238095241</v>
       </c>
       <c r="G88">
-        <v>2.0993743452083464</v>
+        <v>2.1740767220617414</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
@@ -3318,8 +3318,8 @@
       <c r="B89" s="4">
         <v>37529</v>
       </c>
-      <c r="C89" s="2">
-        <v>425.78942588532556</v>
+      <c r="C89">
+        <v>425.78949999999998</v>
       </c>
       <c r="D89" s="2">
         <v>2858.4651899999999</v>
@@ -3327,11 +3327,11 @@
       <c r="E89" s="2">
         <v>6.3568732518565891</v>
       </c>
-      <c r="F89" s="2">
-        <v>26.989660000000001</v>
+      <c r="F89">
+        <v>26.771969696969691</v>
       </c>
       <c r="G89">
-        <v>2.3628793668459593</v>
+        <v>2.3236223453495342</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.35">
@@ -3341,8 +3341,8 @@
       <c r="B90" s="4">
         <v>37621</v>
       </c>
-      <c r="C90" s="2">
-        <v>424.38428145154364</v>
+      <c r="C90">
+        <v>424.3843</v>
       </c>
       <c r="D90" s="2">
         <v>2857.7744699999998</v>
@@ -3350,11 +3350,11 @@
       <c r="E90" s="2">
         <v>6.4607079482411676</v>
       </c>
-      <c r="F90" s="2">
-        <v>26.779949999999999</v>
+      <c r="F90">
+        <v>26.786923076923081</v>
       </c>
       <c r="G90">
-        <v>2.6567145095871325</v>
+        <v>2.6762315004555433</v>
       </c>
       <c r="H90" s="2">
         <v>2.6</v>
@@ -3373,8 +3373,8 @@
       <c r="B91" s="4">
         <v>37711</v>
       </c>
-      <c r="C91" s="2">
-        <v>426.65842163047449</v>
+      <c r="C91">
+        <v>426.65859999999998</v>
       </c>
       <c r="D91" s="2">
         <v>2849.2044599999999</v>
@@ -3382,11 +3382,11 @@
       <c r="E91" s="2">
         <v>6.6957331541422871</v>
       </c>
-      <c r="F91" s="2">
-        <v>31.466339999999999</v>
+      <c r="F91">
+        <v>31.485396825396819</v>
       </c>
       <c r="G91">
-        <v>2.7876331661756097</v>
+        <v>2.7812096354195717</v>
       </c>
       <c r="H91" s="2">
         <v>2.5666666666666669</v>
@@ -3405,8 +3405,8 @@
       <c r="B92" s="4">
         <v>37802</v>
       </c>
-      <c r="C92" s="2">
-        <v>422.69031770012788</v>
+      <c r="C92">
+        <v>422.69060000000002</v>
       </c>
       <c r="D92" s="2">
         <v>2844.8296</v>
@@ -3414,11 +3414,11 @@
       <c r="E92" s="2">
         <v>6.8818001381073204</v>
       </c>
-      <c r="F92" s="2">
-        <v>26.136289999999999</v>
+      <c r="F92">
+        <v>25.877540983606551</v>
       </c>
       <c r="G92">
-        <v>2.2322014483090697</v>
+        <v>2.1363151664963027</v>
       </c>
       <c r="H92" s="2">
         <v>2.6</v>
@@ -3437,8 +3437,8 @@
       <c r="B93" s="4">
         <v>37894</v>
       </c>
-      <c r="C93" s="2">
-        <v>424.14213549532633</v>
+      <c r="C93">
+        <v>424.14240000000001</v>
       </c>
       <c r="D93" s="2">
         <v>2847.51073</v>
@@ -3446,11 +3446,11 @@
       <c r="E93" s="2">
         <v>6.9576311970777844</v>
       </c>
-      <c r="F93" s="2">
-        <v>28.475020000000001</v>
+      <c r="F93">
+        <v>28.30924242424242</v>
       </c>
       <c r="G93">
-        <v>1.6316903369301201</v>
+        <v>1.6852384401178568</v>
       </c>
       <c r="H93" s="2">
         <v>2</v>
@@ -3469,8 +3469,8 @@
       <c r="B94" s="4">
         <v>37986</v>
       </c>
-      <c r="C94" s="2">
-        <v>432.04408798640651</v>
+      <c r="C94">
+        <v>432.04410000000001</v>
       </c>
       <c r="D94" s="2">
         <v>2843.00936</v>
@@ -3478,11 +3478,11 @@
       <c r="E94" s="2">
         <v>7.1864791272529107</v>
       </c>
-      <c r="F94" s="2">
-        <v>29.448460000000001</v>
+      <c r="F94">
+        <v>29.362812499999979</v>
       </c>
       <c r="G94">
-        <v>1.2765601306205809</v>
+        <v>1.2583867540488995</v>
       </c>
       <c r="H94" s="2">
         <v>1.5333333333333332</v>
@@ -3501,8 +3501,8 @@
       <c r="B95" s="4">
         <v>38077</v>
       </c>
-      <c r="C95" s="2">
-        <v>434.12483578467658</v>
+      <c r="C95">
+        <v>434.12490000000003</v>
       </c>
       <c r="D95" s="2">
         <v>2822.2287000000001</v>
@@ -3510,11 +3510,11 @@
       <c r="E95" s="2">
         <v>7.1594108636132745</v>
       </c>
-      <c r="F95" s="2">
-        <v>31.978870000000001</v>
+      <c r="F95">
+        <v>31.853437499999998</v>
       </c>
       <c r="G95">
-        <v>0.66597011290178898</v>
+        <v>0.6942210912431932</v>
       </c>
       <c r="H95" s="2">
         <v>1.2333333333333334</v>
@@ -3533,8 +3533,8 @@
       <c r="B96" s="4">
         <v>38168</v>
       </c>
-      <c r="C96" s="2">
-        <v>436.70939408054096</v>
+      <c r="C96">
+        <v>436.70960000000002</v>
       </c>
       <c r="D96" s="2">
         <v>2836.2442999999998</v>
@@ -3542,11 +3542,11 @@
       <c r="E96" s="2">
         <v>7.12020891816094</v>
       </c>
-      <c r="F96" s="2">
-        <v>35.449710000000003</v>
+      <c r="F96">
+        <v>35.282380952380962</v>
       </c>
       <c r="G96">
-        <v>0.81276189937202048</v>
+        <v>0.88601042366597937</v>
       </c>
       <c r="H96" s="2">
         <v>0.76666666666666661</v>
@@ -3565,8 +3565,8 @@
       <c r="B97" s="4">
         <v>38260</v>
       </c>
-      <c r="C97" s="2">
-        <v>437.73833983170829</v>
+      <c r="C97">
+        <v>437.73860000000002</v>
       </c>
       <c r="D97" s="2">
         <v>2826.07357</v>
@@ -3574,11 +3574,11 @@
       <c r="E97" s="2">
         <v>7.0359392186195402</v>
       </c>
-      <c r="F97" s="2">
-        <v>41.434539999999998</v>
+      <c r="F97">
+        <v>41.224242424242412</v>
       </c>
       <c r="G97">
-        <v>0.95036461825839069</v>
+        <v>0.96013010996998105</v>
       </c>
       <c r="H97" s="2">
         <v>0.6</v>
@@ -3597,8 +3597,8 @@
       <c r="B98" s="4">
         <v>38352</v>
       </c>
-      <c r="C98" s="2">
-        <v>442.46988937678321</v>
+      <c r="C98">
+        <v>442.47</v>
       </c>
       <c r="D98" s="2">
         <v>2835.8275899999999</v>
@@ -3606,11 +3606,11 @@
       <c r="E98" s="2">
         <v>6.9653373249724035</v>
       </c>
-      <c r="F98" s="2">
-        <v>44.338859999999997</v>
+      <c r="F98">
+        <v>44.78234375000001</v>
       </c>
       <c r="G98">
-        <v>1.162089098747316</v>
+        <v>1.2051317711790261</v>
       </c>
       <c r="H98" s="2">
         <v>0.80000000000000016</v>
@@ -3629,8 +3629,8 @@
       <c r="B99" s="4">
         <v>38442</v>
       </c>
-      <c r="C99" s="2">
-        <v>440.86389390977831</v>
+      <c r="C99">
+        <v>440.8639</v>
       </c>
       <c r="D99" s="2">
         <v>2841.0472399999999</v>
@@ -3638,11 +3638,11 @@
       <c r="E99" s="2">
         <v>6.6511742249064847</v>
       </c>
-      <c r="F99" s="2">
-        <v>47.532089999999997</v>
+      <c r="F99">
+        <v>47.749180327868842</v>
       </c>
       <c r="G99">
-        <v>1.0690724719377727</v>
+        <v>1.0860791477893343</v>
       </c>
       <c r="H99" s="2">
         <v>0.66666666666666663</v>
@@ -3661,8 +3661,8 @@
       <c r="B100" s="4">
         <v>38533</v>
       </c>
-      <c r="C100" s="2">
-        <v>449.54388061270527</v>
+      <c r="C100">
+        <v>449.54410000000001</v>
       </c>
       <c r="D100" s="2">
         <v>2852.6362899999999</v>
@@ -3670,11 +3670,11 @@
       <c r="E100" s="2">
         <v>6.4407859418667686</v>
       </c>
-      <c r="F100" s="2">
-        <v>51.044429999999998</v>
+      <c r="F100">
+        <v>52.878571428571433</v>
       </c>
       <c r="G100">
-        <v>1.5530667045191819</v>
+        <v>1.5583585118246646</v>
       </c>
       <c r="H100" s="2">
         <v>1.1333333333333333</v>
@@ -3693,8 +3693,8 @@
       <c r="B101" s="4">
         <v>38625</v>
       </c>
-      <c r="C101" s="2">
-        <v>450.044603740019</v>
+      <c r="C101">
+        <v>450.0446</v>
       </c>
       <c r="D101" s="2">
         <v>2849.67569</v>
@@ -3702,11 +3702,11 @@
       <c r="E101" s="2">
         <v>6.1458794013623299</v>
       </c>
-      <c r="F101" s="2">
-        <v>61.570360000000001</v>
+      <c r="F101">
+        <v>61.725538461538463</v>
       </c>
       <c r="G101">
-        <v>2.1560535515357913</v>
+        <v>2.2227892192750573</v>
       </c>
       <c r="H101" s="2">
         <v>1.2</v>
@@ -3725,8 +3725,8 @@
       <c r="B102" s="4">
         <v>38717</v>
       </c>
-      <c r="C102" s="2">
-        <v>451.50604982667647</v>
+      <c r="C102">
+        <v>451.50599999999997</v>
       </c>
       <c r="D102" s="2">
         <v>2850.3584099999998</v>
@@ -3734,11 +3734,11 @@
       <c r="E102" s="2">
         <v>5.8520645424171738</v>
       </c>
-      <c r="F102" s="2">
-        <v>56.611809999999998</v>
+      <c r="F102">
+        <v>57.819062499999987</v>
       </c>
       <c r="G102">
-        <v>2.0030822733889693</v>
+        <v>2.0333028612640192</v>
       </c>
       <c r="H102" s="2">
         <v>1.2</v>
@@ -3757,8 +3757,8 @@
       <c r="B103" s="4">
         <v>38807</v>
       </c>
-      <c r="C103" s="2">
-        <v>457.18002117634103</v>
+      <c r="C103">
+        <v>457.17989999999998</v>
       </c>
       <c r="D103" s="2">
         <v>2859.2962600000001</v>
@@ -3766,11 +3766,11 @@
       <c r="E103" s="2">
         <v>5.3734933067016764</v>
       </c>
-      <c r="F103" s="2">
-        <v>61.310920000000003</v>
+      <c r="F103">
+        <v>62.720624999999991</v>
       </c>
       <c r="G103">
-        <v>1.9968159673120311</v>
+        <v>1.9832172552366529</v>
       </c>
       <c r="H103" s="2">
         <v>1.2999999999999998</v>
@@ -3789,8 +3789,8 @@
       <c r="B104" s="4">
         <v>38898</v>
       </c>
-      <c r="C104" s="2">
-        <v>470.81498115628392</v>
+      <c r="C104">
+        <v>470.81490000000002</v>
       </c>
       <c r="D104" s="2">
         <v>2867.7513899999999</v>
@@ -3798,11 +3798,11 @@
       <c r="E104" s="2">
         <v>5.0440390722918016</v>
       </c>
-      <c r="F104" s="2">
-        <v>69.359390000000005</v>
+      <c r="F104">
+        <v>70.332258064516139</v>
       </c>
       <c r="G104">
-        <v>1.9931684741141709</v>
+        <v>2.0019346823068673</v>
       </c>
       <c r="H104" s="2">
         <v>1.0999999999999999</v>
@@ -3821,8 +3821,8 @@
       <c r="B105" s="4">
         <v>38990</v>
       </c>
-      <c r="C105" s="2">
-        <v>467.67536966685446</v>
+      <c r="C105">
+        <v>467.67540000000002</v>
       </c>
       <c r="D105" s="2">
         <v>2869.7239199999999</v>
@@ -3830,11 +3830,11 @@
       <c r="E105" s="2">
         <v>4.7540041595148832</v>
       </c>
-      <c r="F105" s="2">
-        <v>69.673569999999998</v>
+      <c r="F105">
+        <v>71.09615384615384</v>
       </c>
       <c r="G105">
-        <v>1.7806372918343527</v>
+        <v>1.7792355888195885</v>
       </c>
       <c r="H105" s="2">
         <v>1.4000000000000001</v>
@@ -3853,8 +3853,8 @@
       <c r="B106" s="4">
         <v>39082</v>
       </c>
-      <c r="C106" s="2">
-        <v>466.40781629654992</v>
+      <c r="C106">
+        <v>466.40789999999998</v>
       </c>
       <c r="D106" s="2">
         <v>2882.3636700000002</v>
@@ -3862,11 +3862,11 @@
       <c r="E106" s="2">
         <v>4.3711649036526108</v>
       </c>
-      <c r="F106" s="2">
-        <v>59.699069999999999</v>
+      <c r="F106">
+        <v>60.596406250000008</v>
       </c>
       <c r="G106">
-        <v>1.6466949201847854</v>
+        <v>1.6159590392190921</v>
       </c>
       <c r="H106" s="2">
         <v>1.5</v>
@@ -3885,8 +3885,8 @@
       <c r="B107" s="4">
         <v>39172</v>
       </c>
-      <c r="C107" s="2">
-        <v>467.95285824848651</v>
+      <c r="C107">
+        <v>467.95310000000001</v>
       </c>
       <c r="D107" s="2">
         <v>2910.2888499999999</v>
@@ -3894,11 +3894,11 @@
       <c r="E107" s="2">
         <v>3.9527389842365315</v>
       </c>
-      <c r="F107" s="2">
-        <v>57.912750000000003</v>
+      <c r="F107">
+        <v>58.241250000000008</v>
       </c>
       <c r="G107">
-        <v>1.8385367484820279</v>
+        <v>1.8498062767044843</v>
       </c>
       <c r="H107" s="2">
         <v>1.5666666666666667</v>
@@ -3917,8 +3917,8 @@
       <c r="B108" s="4">
         <v>39263</v>
       </c>
-      <c r="C108" s="2">
-        <v>465.85704250766031</v>
+      <c r="C108">
+        <v>465.85719999999998</v>
       </c>
       <c r="D108" s="2">
         <v>2905.9630200000001</v>
@@ -3926,11 +3926,11 @@
       <c r="E108" s="2">
         <v>3.644704763095461</v>
       </c>
-      <c r="F108" s="2">
-        <v>68.722970000000004</v>
+      <c r="F108">
+        <v>68.613437500000003</v>
       </c>
       <c r="G108">
-        <v>1.5375056129182099</v>
+        <v>1.5452850738729751</v>
       </c>
       <c r="H108" s="2">
         <v>1.7</v>
@@ -3949,8 +3949,8 @@
       <c r="B109" s="4">
         <v>39355</v>
       </c>
-      <c r="C109" s="2">
-        <v>470.23380171874754</v>
+      <c r="C109">
+        <v>470.23399999999998</v>
       </c>
       <c r="D109" s="2">
         <v>2891.9307899999999</v>
@@ -3958,11 +3958,11 @@
       <c r="E109" s="2">
         <v>3.3594114429074908</v>
       </c>
-      <c r="F109" s="2">
-        <v>75.002520000000004</v>
+      <c r="F109">
+        <v>74.319076923076949</v>
       </c>
       <c r="G109">
-        <v>1.0283380906707151</v>
+        <v>0.97520008253133028</v>
       </c>
       <c r="H109" s="2">
         <v>1.3333333333333333</v>
@@ -3981,8 +3981,8 @@
       <c r="B110" s="4">
         <v>39447</v>
       </c>
-      <c r="C110" s="2">
-        <v>474.96418557379127</v>
+      <c r="C110">
+        <v>474.96449999999999</v>
       </c>
       <c r="D110" s="2">
         <v>2886.13762</v>
@@ -3990,11 +3990,11 @@
       <c r="E110" s="2">
         <v>3.0036122973347275</v>
       </c>
-      <c r="F110" s="2">
-        <v>88.710530000000006</v>
+      <c r="F110">
+        <v>88.225538461538477</v>
       </c>
       <c r="G110">
-        <v>2.2852724245426543</v>
+        <v>2.256467713341209</v>
       </c>
       <c r="H110" s="2">
         <v>2</v>
@@ -4013,8 +4013,8 @@
       <c r="B111" s="4">
         <v>39538</v>
       </c>
-      <c r="C111" s="2">
-        <v>474.76699008031318</v>
+      <c r="C111">
+        <v>474.76710000000003</v>
       </c>
       <c r="D111" s="2">
         <v>2907.96992</v>
@@ -4022,11 +4022,11 @@
       <c r="E111" s="2">
         <v>2.6258321009016159</v>
       </c>
-      <c r="F111" s="2">
-        <v>96.946950000000001</v>
+      <c r="F111">
+        <v>96.179206349206311</v>
       </c>
       <c r="G111">
-        <v>3.1829215019694317</v>
+        <v>3.1789118721090119</v>
       </c>
       <c r="H111" s="2">
         <v>2.7000000000000006</v>
@@ -4045,8 +4045,8 @@
       <c r="B112" s="4">
         <v>39629</v>
       </c>
-      <c r="C112" s="2">
-        <v>470.38611687500799</v>
+      <c r="C112">
+        <v>470.38650000000001</v>
       </c>
       <c r="D112" s="2">
         <v>2898.1729099999998</v>
@@ -4054,11 +4054,11 @@
       <c r="E112" s="2">
         <v>2.3320259211446559</v>
       </c>
-      <c r="F112" s="2">
-        <v>121.7448</v>
+      <c r="F112">
+        <v>121.84338461538459</v>
       </c>
       <c r="G112">
-        <v>3.7032805044464538</v>
+        <v>3.7567105326751289</v>
       </c>
       <c r="H112" s="2">
         <v>2.8000000000000003</v>
@@ -4077,8 +4077,8 @@
       <c r="B113" s="4">
         <v>39721</v>
       </c>
-      <c r="C113" s="2">
-        <v>467.63837536775742</v>
+      <c r="C113">
+        <v>467.6388</v>
       </c>
       <c r="D113" s="2">
         <v>2911.3177900000001</v>
@@ -4086,11 +4086,11 @@
       <c r="E113" s="2">
         <v>2.3832927862592572</v>
       </c>
-      <c r="F113" s="2">
-        <v>115.06059999999999</v>
+      <c r="F113">
+        <v>118.0201515151515</v>
       </c>
       <c r="G113">
-        <v>4.5504755636069518</v>
+        <v>4.551471995354774</v>
       </c>
       <c r="H113" s="2">
         <v>3.5333333333333332</v>
@@ -4109,8 +4109,8 @@
       <c r="B114" s="4">
         <v>39813</v>
       </c>
-      <c r="C114" s="2">
-        <v>456.59522282354374</v>
+      <c r="C114">
+        <v>456.59559999999999</v>
       </c>
       <c r="D114" s="2">
         <v>2914.9343399999998</v>
@@ -4118,11 +4118,11 @@
       <c r="E114" s="2">
         <v>2.7190902719148351</v>
       </c>
-      <c r="F114" s="2">
-        <v>54.877940000000002</v>
+      <c r="F114">
+        <v>58.410153846153847</v>
       </c>
       <c r="G114">
-        <v>3.0290907463516987</v>
+        <v>3.0717763286079816</v>
       </c>
       <c r="H114" s="2">
         <v>2.8666666666666671</v>
@@ -4141,8 +4141,8 @@
       <c r="B115" s="4">
         <v>39903</v>
       </c>
-      <c r="C115" s="2">
-        <v>450.09601682374256</v>
+      <c r="C115">
+        <v>450.09620000000001</v>
       </c>
       <c r="D115" s="2">
         <v>2884.3014400000002</v>
@@ -4150,11 +4150,11 @@
       <c r="E115" s="2">
         <v>3.4661989843215362</v>
       </c>
-      <c r="F115" s="2">
-        <v>44.456760000000003</v>
+      <c r="F115">
+        <v>45.57</v>
       </c>
       <c r="G115">
-        <v>1.6185749085576333</v>
+        <v>1.5903306767016261</v>
       </c>
       <c r="H115" s="2">
         <v>2.3333333333333335</v>
@@ -4173,8 +4173,8 @@
       <c r="B116" s="4">
         <v>39994</v>
       </c>
-      <c r="C116" s="2">
-        <v>441.37155063831676</v>
+      <c r="C116">
+        <v>441.37180000000001</v>
       </c>
       <c r="D116" s="2">
         <v>2875.19607</v>
@@ -4182,11 +4182,11 @@
       <c r="E116" s="2">
         <v>4.449208249324256</v>
       </c>
-      <c r="F116" s="2">
-        <v>58.95946</v>
+      <c r="F116">
+        <v>59.440624999999997</v>
       </c>
       <c r="G116">
-        <v>1.0707912896072713</v>
+        <v>1.0113527659431583</v>
       </c>
       <c r="H116" s="2">
         <v>2.0333333333333332</v>
@@ -4205,8 +4205,8 @@
       <c r="B117" s="4">
         <v>40086</v>
       </c>
-      <c r="C117" s="2">
-        <v>442.89788339145127</v>
+      <c r="C117">
+        <v>442.89789999999999</v>
       </c>
       <c r="D117" s="2">
         <v>2870.6467600000001</v>
@@ -4214,11 +4214,11 @@
       <c r="E117" s="2">
         <v>4.9953569495687837</v>
       </c>
-      <c r="F117" s="2">
-        <v>68.321520000000007</v>
+      <c r="F117">
+        <v>68.841363636363639</v>
       </c>
       <c r="G117">
-        <v>0.62979285887156777</v>
+        <v>0.61035815865608356</v>
       </c>
       <c r="H117" s="2">
         <v>1.6666666666666667</v>
@@ -4237,8 +4237,8 @@
       <c r="B118" s="4">
         <v>40178</v>
       </c>
-      <c r="C118" s="2">
-        <v>443.29950098233263</v>
+      <c r="C118">
+        <v>443.2998</v>
       </c>
       <c r="D118" s="2">
         <v>2857.07573</v>
@@ -4246,11 +4246,11 @@
       <c r="E118" s="2">
         <v>5.4413415545346018</v>
       </c>
-      <c r="F118" s="2">
-        <v>74.735050000000001</v>
+      <c r="F118">
+        <v>75.253692307692305</v>
       </c>
       <c r="G118">
-        <v>0.99255033198379294</v>
+        <v>0.96573392103829292</v>
       </c>
       <c r="H118" s="2">
         <v>1.3</v>
@@ -4269,8 +4269,8 @@
       <c r="B119" s="4">
         <v>40268</v>
       </c>
-      <c r="C119" s="2">
-        <v>447.12761957935817</v>
+      <c r="C119">
+        <v>447.12799999999999</v>
       </c>
       <c r="D119" s="2">
         <v>2829.8395799999998</v>
@@ -4278,11 +4278,11 @@
       <c r="E119" s="2">
         <v>5.7427722119205216</v>
       </c>
-      <c r="F119" s="2">
-        <v>76.365070000000003</v>
+      <c r="F119">
+        <v>77.220158730158758</v>
       </c>
       <c r="G119">
-        <v>1.8963274104951466</v>
+        <v>1.9039047584872719</v>
       </c>
       <c r="H119" s="2">
         <v>1.3666666666666665</v>
@@ -4301,8 +4301,8 @@
       <c r="B120" s="4">
         <v>40359</v>
       </c>
-      <c r="C120" s="2">
-        <v>450.18393426737896</v>
+      <c r="C120">
+        <v>450.18419999999998</v>
       </c>
       <c r="D120" s="2">
         <v>2832.2677399999998</v>
@@ -4310,11 +4310,11 @@
       <c r="E120" s="2">
         <v>5.7541915107552537</v>
       </c>
-      <c r="F120" s="2">
-        <v>78.353970000000004</v>
+      <c r="F120">
+        <v>79.656250000000014</v>
       </c>
       <c r="G120">
-        <v>2.0505215803546548</v>
+        <v>2.0538748075119742</v>
       </c>
       <c r="H120" s="2">
         <v>1.2333333333333334</v>
@@ -4333,8 +4333,8 @@
       <c r="B121" s="4">
         <v>40451</v>
       </c>
-      <c r="C121" s="2">
-        <v>457.32091470683025</v>
+      <c r="C121">
+        <v>457.32130000000001</v>
       </c>
       <c r="D121" s="2">
         <v>2833.35581</v>
@@ -4342,11 +4342,11 @@
       <c r="E121" s="2">
         <v>5.8123351320126782</v>
       </c>
-      <c r="F121" s="2">
-        <v>76.850610000000003</v>
+      <c r="F121">
+        <v>76.743181818181824</v>
       </c>
       <c r="G121">
-        <v>2.3487719986913191</v>
+        <v>2.3499265185261891</v>
       </c>
       <c r="H121" s="2">
         <v>1.6666666666666667</v>
@@ -4365,8 +4365,8 @@
       <c r="B122" s="4">
         <v>40543</v>
       </c>
-      <c r="C122" s="2">
-        <v>456.29173137122615</v>
+      <c r="C122">
+        <v>456.2921</v>
       </c>
       <c r="D122" s="2">
         <v>2832.78611</v>
@@ -4374,11 +4374,11 @@
       <c r="E122" s="2">
         <v>5.7699511228486458</v>
       </c>
-      <c r="F122" s="2">
-        <v>86.580510000000004</v>
+      <c r="F122">
+        <v>87.225606060606054</v>
       </c>
       <c r="G122">
-        <v>2.4810514146719242</v>
+        <v>2.482324897166535</v>
       </c>
       <c r="H122" s="2">
         <v>1.7333333333333334</v>
@@ -4397,8 +4397,8 @@
       <c r="B123" s="4">
         <v>40633</v>
       </c>
-      <c r="C123" s="2">
-        <v>457.28605565734921</v>
+      <c r="C123">
+        <v>457.28609999999998</v>
       </c>
       <c r="D123" s="2">
         <v>2823.5940599999999</v>
@@ -4406,11 +4406,11 @@
       <c r="E123" s="2">
         <v>5.7024813493993864</v>
       </c>
-      <c r="F123" s="2">
-        <v>104.91370000000001</v>
+      <c r="F123">
+        <v>105.1946875</v>
       </c>
       <c r="G123">
-        <v>2.5559208031060052</v>
+        <v>2.5647253948952482</v>
       </c>
       <c r="H123" s="2">
         <v>1.8</v>
@@ -4429,8 +4429,8 @@
       <c r="B124" s="4">
         <v>40724</v>
       </c>
-      <c r="C124" s="2">
-        <v>461.86922735133891</v>
+      <c r="C124">
+        <v>461.86959999999999</v>
       </c>
       <c r="D124" s="2">
         <v>2831.3271399999999</v>
@@ -4438,11 +4438,11 @@
       <c r="E124" s="2">
         <v>5.6299286408439775</v>
       </c>
-      <c r="F124" s="2">
-        <v>117.49379999999999</v>
+      <c r="F124">
+        <v>117.01984375000001</v>
       </c>
       <c r="G124">
-        <v>2.9726135307838604</v>
+        <v>2.9789515753970477</v>
       </c>
       <c r="H124" s="2">
         <v>2.1666666666666665</v>
@@ -4461,8 +4461,8 @@
       <c r="B125" s="4">
         <v>40816</v>
       </c>
-      <c r="C125" s="2">
-        <v>456.12485665882713</v>
+      <c r="C125">
+        <v>456.12529999999998</v>
       </c>
       <c r="D125" s="2">
         <v>2832.87635</v>
@@ -4470,11 +4470,11 @@
       <c r="E125" s="2">
         <v>5.6296464656788805</v>
       </c>
-      <c r="F125" s="2">
-        <v>113.1405</v>
+      <c r="F125">
+        <v>112.3280303030303</v>
       </c>
       <c r="G125">
-        <v>2.5382770187301702</v>
+        <v>2.5425957543837825</v>
       </c>
       <c r="H125" s="2">
         <v>1.8666666666666669</v>
@@ -4493,8 +4493,8 @@
       <c r="B126" s="4">
         <v>40908</v>
       </c>
-      <c r="C126" s="2">
-        <v>459.85238295888735</v>
+      <c r="C126">
+        <v>459.85270000000003</v>
       </c>
       <c r="D126" s="2">
         <v>2831.4003600000001</v>
@@ -4502,11 +4502,11 @@
       <c r="E126" s="2">
         <v>5.5422858778230815</v>
       </c>
-      <c r="F126" s="2">
-        <v>109.4419</v>
+      <c r="F126">
+        <v>109.10421875</v>
       </c>
       <c r="G126">
-        <v>2.5360348657623746</v>
+        <v>2.5387585106360007</v>
       </c>
       <c r="H126" s="2">
         <v>1.8666666666666665</v>
@@ -4525,8 +4525,8 @@
       <c r="B127" s="4">
         <v>40999</v>
       </c>
-      <c r="C127" s="2">
-        <v>459.53256841400321</v>
+      <c r="C127">
+        <v>459.5333</v>
       </c>
       <c r="D127" s="2">
         <v>2822.47318</v>
@@ -4534,11 +4534,11 @@
       <c r="E127" s="2">
         <v>5.6697380203176131</v>
       </c>
-      <c r="F127" s="2">
-        <v>118.6489</v>
+      <c r="F127">
+        <v>118.22031250000001</v>
       </c>
       <c r="G127">
-        <v>2.730574076856044</v>
+        <v>2.7358283294420147</v>
       </c>
       <c r="H127" s="2">
         <v>2.3666666666666667</v>
@@ -4557,8 +4557,8 @@
       <c r="B128" s="4">
         <v>41090</v>
       </c>
-      <c r="C128" s="2">
-        <v>459.87816965349032</v>
+      <c r="C128">
+        <v>459.87909999999999</v>
       </c>
       <c r="D128" s="2">
         <v>2823.90229</v>
@@ -4566,11 +4566,11 @@
       <c r="E128" s="2">
         <v>5.8229116673529546</v>
       </c>
-      <c r="F128" s="2">
-        <v>108.8227</v>
+      <c r="F128">
+        <v>109.36609375</v>
       </c>
       <c r="G128">
-        <v>2.1571295422453005</v>
+        <v>2.1600663091151091</v>
       </c>
       <c r="H128" s="2">
         <v>2.2666666666666666</v>
@@ -4589,8 +4589,8 @@
       <c r="B129" s="4">
         <v>41182</v>
       </c>
-      <c r="C129" s="2">
-        <v>460.31023124544515</v>
+      <c r="C129">
+        <v>460.3109</v>
       </c>
       <c r="D129" s="2">
         <v>2821.3447099999998</v>
@@ -4598,11 +4598,11 @@
       <c r="E129" s="2">
         <v>5.7697722340383848</v>
       </c>
-      <c r="F129" s="2">
-        <v>109.6541</v>
+      <c r="F129">
+        <v>109.2289230769231</v>
       </c>
       <c r="G129">
-        <v>2.4452171545249541</v>
+        <v>2.4463697506793096</v>
       </c>
       <c r="H129" s="2">
         <v>2.2999999999999998</v>
@@ -4621,8 +4621,8 @@
       <c r="B130" s="4">
         <v>41274</v>
       </c>
-      <c r="C130" s="2">
-        <v>459.56630365351998</v>
+      <c r="C130">
+        <v>459.56689999999998</v>
       </c>
       <c r="D130" s="2">
         <v>2820.65924</v>
@@ -4630,11 +4630,11 @@
       <c r="E130" s="2">
         <v>5.6922298817276111</v>
       </c>
-      <c r="F130" s="2">
-        <v>110.2563</v>
+      <c r="F130">
+        <v>110.2115384615385</v>
       </c>
       <c r="G130">
-        <v>2.0791912336241865</v>
+        <v>2.0801250356455796</v>
       </c>
       <c r="H130" s="2">
         <v>2.1</v>
@@ -4653,8 +4653,8 @@
       <c r="B131" s="4">
         <v>41364</v>
       </c>
-      <c r="C131" s="2">
-        <v>462.15736797555104</v>
+      <c r="C131">
+        <v>462.15809999999999</v>
       </c>
       <c r="D131" s="2">
         <v>2818.7222499999998</v>
@@ -4662,11 +4662,11 @@
       <c r="E131" s="2">
         <v>5.57363532695567</v>
       </c>
-      <c r="F131" s="2">
-        <v>112.6075</v>
+      <c r="F131">
+        <v>112.69370967741931</v>
       </c>
       <c r="G131">
-        <v>0.94404535863191086</v>
+        <v>0.94758804337800484</v>
       </c>
       <c r="H131" s="2">
         <v>0.83333333333333337</v>
@@ -4685,8 +4685,8 @@
       <c r="B132" s="4">
         <v>41455</v>
       </c>
-      <c r="C132" s="2">
-        <v>462.50089096260552</v>
+      <c r="C132">
+        <v>462.50139999999999</v>
       </c>
       <c r="D132" s="2">
         <v>2820.61384</v>
@@ -4694,11 +4694,11 @@
       <c r="E132" s="2">
         <v>5.5250267475536461</v>
       </c>
-      <c r="F132" s="2">
-        <v>102.70269999999999</v>
+      <c r="F132">
+        <v>103.470923076923</v>
       </c>
       <c r="G132">
-        <v>0.63408768028456564</v>
+        <v>0.63610119347754335</v>
       </c>
       <c r="H132" s="2">
         <v>0.6</v>
@@ -4717,8 +4717,8 @@
       <c r="B133" s="4">
         <v>41547</v>
       </c>
-      <c r="C133" s="2">
-        <v>465.43014341863375</v>
+      <c r="C133">
+        <v>465.43079999999998</v>
       </c>
       <c r="D133" s="2">
         <v>2824.6955800000001</v>
@@ -4726,11 +4726,11 @@
       <c r="E133" s="2">
         <v>5.3621318501364899</v>
       </c>
-      <c r="F133" s="2">
-        <v>110.3498</v>
+      <c r="F133">
+        <v>109.5659090909091</v>
       </c>
       <c r="G133">
-        <v>0.18576047240634352</v>
+        <v>0.18783986971276079</v>
       </c>
       <c r="H133" s="2">
         <v>0.3</v>
@@ -4749,8 +4749,8 @@
       <c r="B134" s="4">
         <v>41639</v>
       </c>
-      <c r="C134" s="2">
-        <v>466.36606224964601</v>
+      <c r="C134">
+        <v>466.36680000000001</v>
       </c>
       <c r="D134" s="2">
         <v>2826.7089099999998</v>
@@ -4758,11 +4758,11 @@
       <c r="E134" s="2">
         <v>5.2547523638473717</v>
       </c>
-      <c r="F134" s="2">
-        <v>109.32810000000001</v>
+      <c r="F134">
+        <v>109.322</v>
       </c>
       <c r="G134">
-        <v>0.32196737453620017</v>
+        <v>0.32270462519667831</v>
       </c>
       <c r="H134" s="2">
         <v>0.53333333333333333</v>
@@ -4781,8 +4781,8 @@
       <c r="B135" s="4">
         <v>41729</v>
       </c>
-      <c r="C135" s="2">
-        <v>467.54727211006752</v>
+      <c r="C135">
+        <v>467.54790000000003</v>
       </c>
       <c r="D135" s="2">
         <v>2822.3292499999998</v>
@@ -4790,11 +4790,11 @@
       <c r="E135" s="2">
         <v>4.9062624101196848</v>
       </c>
-      <c r="F135" s="2">
-        <v>108.24769999999999</v>
+      <c r="F135">
+        <v>108.0066666666667</v>
       </c>
       <c r="G135">
-        <v>0.48211519284208748</v>
+        <v>0.48286771635707737</v>
       </c>
       <c r="H135" s="2">
         <v>0.70000000000000007</v>
@@ -4813,8 +4813,8 @@
       <c r="B136" s="4">
         <v>41820</v>
       </c>
-      <c r="C136" s="2">
-        <v>467.20852267483576</v>
+      <c r="C136">
+        <v>467.20920000000001</v>
       </c>
       <c r="D136" s="2">
         <v>2825.7004499999998</v>
@@ -4822,11 +4822,11 @@
       <c r="E136" s="2">
         <v>4.7503453327426248</v>
       </c>
-      <c r="F136" s="2">
-        <v>109.7867</v>
+      <c r="F136">
+        <v>109.7095238095238</v>
       </c>
       <c r="G136">
-        <v>0.42843299435837423</v>
+        <v>0.42709104111683871</v>
       </c>
       <c r="H136" s="2">
         <v>0.46666666666666662</v>
@@ -4845,8 +4845,8 @@
       <c r="B137" s="4">
         <v>41912</v>
       </c>
-      <c r="C137" s="2">
-        <v>475.02891057390741</v>
+      <c r="C137">
+        <v>475.02969999999999</v>
       </c>
       <c r="D137" s="2">
         <v>2827.5064200000002</v>
@@ -4854,11 +4854,11 @@
       <c r="E137" s="2">
         <v>4.6556395133728703</v>
       </c>
-      <c r="F137" s="2">
-        <v>101.9479</v>
+      <c r="F137">
+        <v>103.8186363636364</v>
       </c>
       <c r="G137">
-        <v>0.33673199629349426</v>
+        <v>0.3351027696409119</v>
       </c>
       <c r="H137" s="2">
         <v>0.53333333333333333</v>
@@ -4877,8 +4877,8 @@
       <c r="B138" s="4">
         <v>42004</v>
       </c>
-      <c r="C138" s="2">
-        <v>476.73283914013274</v>
+      <c r="C138">
+        <v>476.73360000000002</v>
       </c>
       <c r="D138" s="2">
         <v>2833.9921599999998</v>
@@ -4886,11 +4886,11 @@
       <c r="E138" s="2">
         <v>4.5579586012179902</v>
       </c>
-      <c r="F138" s="2">
-        <v>76.053849999999997</v>
+      <c r="F138">
+        <v>77.072307692307689</v>
       </c>
       <c r="G138">
-        <v>0.16579734129793167</v>
+        <v>0.1638617665979325</v>
       </c>
       <c r="H138" s="2">
         <v>0.43333333333333329</v>
@@ -4909,8 +4909,8 @@
       <c r="B139" s="4">
         <v>42094</v>
       </c>
-      <c r="C139" s="2">
-        <v>479.9971165615093</v>
+      <c r="C139">
+        <v>479.99770000000001</v>
       </c>
       <c r="D139" s="2">
         <v>2845.0744</v>
@@ -4918,11 +4918,11 @@
       <c r="E139" s="2">
         <v>4.4764577222344917</v>
       </c>
-      <c r="F139" s="2">
-        <v>54.198030000000003</v>
+      <c r="F139">
+        <v>55.117460317460321</v>
       </c>
       <c r="G139">
-        <v>1.3397850577860027E-2</v>
+        <v>1.2032386359379643E-2</v>
       </c>
       <c r="H139" s="2">
         <v>0.79999999999999993</v>
@@ -4941,8 +4941,8 @@
       <c r="B140" s="4">
         <v>42185</v>
       </c>
-      <c r="C140" s="2">
-        <v>482.24230679486442</v>
+      <c r="C140">
+        <v>482.24299999999999</v>
       </c>
       <c r="D140" s="2">
         <v>2853.6372000000001</v>
@@ -4950,11 +4950,11 @@
       <c r="E140" s="2">
         <v>4.4082806462605255</v>
       </c>
-      <c r="F140" s="2">
-        <v>61.675660000000001</v>
+      <c r="F140">
+        <v>62.753906249999972</v>
       </c>
       <c r="G140">
-        <v>0.42726311035812614</v>
+        <v>0.4253616463931138</v>
       </c>
       <c r="H140" s="2">
         <v>1.0666666666666667</v>
@@ -4973,8 +4973,8 @@
       <c r="B141" s="4">
         <v>42277</v>
       </c>
-      <c r="C141" s="2">
-        <v>483.69719182464428</v>
+      <c r="C141">
+        <v>483.6977</v>
       </c>
       <c r="D141" s="2">
         <v>2858.2902300000001</v>
@@ -4982,11 +4982,11 @@
       <c r="E141" s="2">
         <v>4.2106902570718132</v>
       </c>
-      <c r="F141" s="2">
-        <v>50.198349999999998</v>
+      <c r="F141">
+        <v>51.466060606060623</v>
       </c>
       <c r="G141">
-        <v>0.31833233208394063</v>
+        <v>0.31471442114947479</v>
       </c>
       <c r="H141" s="2">
         <v>1.1666666666666667</v>
@@ -5005,8 +5005,8 @@
       <c r="B142" s="4">
         <v>42369</v>
       </c>
-      <c r="C142" s="2">
-        <v>484.77483846686584</v>
+      <c r="C142">
+        <v>484.77550000000002</v>
       </c>
       <c r="D142" s="2">
         <v>2865.5751300000002</v>
@@ -5014,11 +5014,11 @@
       <c r="E142" s="2">
         <v>4.0853816116326671</v>
       </c>
-      <c r="F142" s="2">
-        <v>43.543370000000003</v>
+      <c r="F142">
+        <v>44.662575757575773</v>
       </c>
       <c r="G142">
-        <v>0.15280189705153191</v>
+        <v>0.1500733011244364</v>
       </c>
       <c r="H142" s="2">
         <v>1.0333333333333334</v>
@@ -5037,8 +5037,8 @@
       <c r="B143" s="4">
         <v>42460</v>
       </c>
-      <c r="C143" s="2">
-        <v>490.36002729230694</v>
+      <c r="C143">
+        <v>490.36040000000003</v>
       </c>
       <c r="D143" s="2">
         <v>2876.30951</v>
@@ -5046,11 +5046,11 @@
       <c r="E143" s="2">
         <v>3.9837465754529235</v>
       </c>
-      <c r="F143" s="2">
-        <v>33.929139999999997</v>
+      <c r="F143">
+        <v>35.318709677419363</v>
       </c>
       <c r="G143">
-        <v>0.10587738692409232</v>
+        <v>0.10161733083711511</v>
       </c>
       <c r="H143" s="2">
         <v>0.6</v>
@@ -5069,8 +5069,8 @@
       <c r="B144" s="4">
         <v>42551</v>
       </c>
-      <c r="C144" s="2">
-        <v>496.9926060371028</v>
+      <c r="C144">
+        <v>496.9932</v>
       </c>
       <c r="D144" s="2">
         <v>2884.0498400000001</v>
@@ -5078,11 +5078,11 @@
       <c r="E144" s="2">
         <v>3.8803774440109589</v>
       </c>
-      <c r="F144" s="2">
-        <v>45.539479999999998</v>
+      <c r="F144">
+        <v>46.966796875</v>
       </c>
       <c r="G144">
-        <v>-7.350369539247481E-2</v>
+        <v>-7.9072653773962998E-2</v>
       </c>
       <c r="H144" s="2">
         <v>0.40000000000000008</v>
@@ -5101,8 +5101,8 @@
       <c r="B145" s="4">
         <v>42643</v>
       </c>
-      <c r="C145" s="2">
-        <v>501.20877492706984</v>
+      <c r="C145">
+        <v>501.20960000000002</v>
       </c>
       <c r="D145" s="2">
         <v>2896.1749799999998</v>
@@ -5110,11 +5110,11 @@
       <c r="E145" s="2">
         <v>3.8283394976019887</v>
       </c>
-      <c r="F145" s="2">
-        <v>45.750070000000001</v>
+      <c r="F145">
+        <v>46.99727272727273</v>
       </c>
       <c r="G145">
-        <v>-0.11768526205683827</v>
+        <v>-0.12327600309959053</v>
       </c>
       <c r="H145" s="2">
         <v>0.39999999999999997</v>
@@ -5133,8 +5133,8 @@
       <c r="B146" s="4">
         <v>42735</v>
       </c>
-      <c r="C146" s="2">
-        <v>504.82011642742015</v>
+      <c r="C146">
+        <v>504.82080000000002</v>
       </c>
       <c r="D146" s="2">
         <v>2909.7444700000001</v>
@@ -5142,11 +5142,11 @@
       <c r="E146" s="2">
         <v>3.8708688400446638</v>
       </c>
-      <c r="F146" s="2">
-        <v>49.303359999999998</v>
+      <c r="F146">
+        <v>51.041874999999983</v>
       </c>
       <c r="G146">
-        <v>0.16998472161080258</v>
+        <v>0.16779488195109593</v>
       </c>
       <c r="H146" s="2">
         <v>6.666666666666668E-2</v>
@@ -5165,8 +5165,8 @@
       <c r="B147" s="4">
         <v>42825</v>
       </c>
-      <c r="C147" s="2">
-        <v>508.12355158570318</v>
+      <c r="C147">
+        <v>508.12430000000001</v>
       </c>
       <c r="D147" s="2">
         <v>2921.6062000000002</v>
@@ -5174,11 +5174,11 @@
       <c r="E147" s="2">
         <v>3.9676867751913849</v>
       </c>
-      <c r="F147" s="2">
-        <v>53.662190000000002</v>
+      <c r="F147">
+        <v>54.635230769230773</v>
       </c>
       <c r="G147">
-        <v>0.84723363387297468</v>
+        <v>0.84178764845700016</v>
       </c>
       <c r="H147" s="2">
         <v>0.39999999999999997</v>
@@ -5197,8 +5197,8 @@
       <c r="B148" s="4">
         <v>42916</v>
       </c>
-      <c r="C148" s="2">
-        <v>513.80328309662002</v>
+      <c r="C148">
+        <v>513.80399999999997</v>
       </c>
       <c r="D148" s="2">
         <v>2933.3497299999999</v>
@@ -5206,11 +5206,11 @@
       <c r="E148" s="2">
         <v>3.9622381179284556</v>
       </c>
-      <c r="F148" s="2">
-        <v>49.734760000000001</v>
+      <c r="F148">
+        <v>50.855076923076908</v>
       </c>
       <c r="G148">
-        <v>0.73488194617408453</v>
+        <v>0.72790384482254922</v>
       </c>
       <c r="H148" s="2">
         <v>0.69999999999999984</v>
@@ -5229,8 +5229,8 @@
       <c r="B149" s="4">
         <v>43008</v>
       </c>
-      <c r="C149" s="2">
-        <v>511.91901172864976</v>
+      <c r="C149">
+        <v>511.91950000000003</v>
       </c>
       <c r="D149" s="2">
         <v>2942.2687799999999</v>
@@ -5238,11 +5238,11 @@
       <c r="E149" s="2">
         <v>4.0160358653203998</v>
       </c>
-      <c r="F149" s="2">
-        <v>52.054220000000001</v>
+      <c r="F149">
+        <v>52.127999999999979</v>
       </c>
       <c r="G149">
-        <v>1.4847906858814781</v>
+        <v>1.4823302142019372</v>
       </c>
       <c r="H149" s="2">
         <v>1.6333333333333335</v>
@@ -5261,8 +5261,8 @@
       <c r="B150" s="4">
         <v>43100</v>
       </c>
-      <c r="C150" s="2">
-        <v>515.78370560653116</v>
+      <c r="C150">
+        <v>515.78430000000003</v>
       </c>
       <c r="D150" s="2">
         <v>2950.5178900000001</v>
@@ -5270,11 +5270,11 @@
       <c r="E150" s="2">
         <v>3.8986440152373172</v>
       </c>
-      <c r="F150" s="2">
-        <v>61.766249999999999</v>
+      <c r="F150">
+        <v>61.392923076923068</v>
       </c>
       <c r="G150">
-        <v>1.1756321188155709</v>
+        <v>1.180572408678259</v>
       </c>
       <c r="H150" s="2">
         <v>1.2</v>
@@ -5293,8 +5293,8 @@
       <c r="B151" s="4">
         <v>43190</v>
       </c>
-      <c r="C151" s="2">
-        <v>518.42463920113994</v>
+      <c r="C151">
+        <v>518.42539999999997</v>
       </c>
       <c r="D151" s="2">
         <v>2956.7958100000001</v>
@@ -5302,11 +5302,11 @@
       <c r="E151" s="2">
         <v>3.7734489879035298</v>
       </c>
-      <c r="F151" s="2">
-        <v>66.880619999999993</v>
+      <c r="F151">
+        <v>67.170468749999998</v>
       </c>
       <c r="G151">
-        <v>0.48521791112892743</v>
+        <v>0.48021458368312153</v>
       </c>
       <c r="H151" s="2">
         <v>0.66666666666666663</v>
@@ -5325,8 +5325,8 @@
       <c r="B152" s="4">
         <v>43281</v>
       </c>
-      <c r="C152" s="2">
-        <v>521.03045634711827</v>
+      <c r="C152">
+        <v>521.03099999999995</v>
       </c>
       <c r="D152" s="2">
         <v>2965.7101699999998</v>
@@ -5334,11 +5334,11 @@
       <c r="E152" s="2">
         <v>3.6630618223935527</v>
       </c>
-      <c r="F152" s="2">
-        <v>74.449010000000001</v>
+      <c r="F152">
+        <v>74.934153846153848</v>
       </c>
       <c r="G152">
-        <v>0.9664436600482702</v>
+        <v>0.95672102182140861</v>
       </c>
       <c r="H152" s="2">
         <v>0.70000000000000007</v>
@@ -5357,8 +5357,8 @@
       <c r="B153" s="1">
         <v>43373</v>
       </c>
-      <c r="C153" s="2">
-        <v>524.1677393997885</v>
+      <c r="C153">
+        <v>524.16830000000004</v>
       </c>
       <c r="D153" s="2">
         <v>2977.1850300000001</v>
@@ -5366,11 +5366,11 @@
       <c r="E153" s="2">
         <v>3.5689718088789562</v>
       </c>
-      <c r="F153" s="2">
-        <v>75.207830000000001</v>
+      <c r="F153">
+        <v>75.833692307692317</v>
       </c>
       <c r="G153">
-        <v>0.69154306941759103</v>
+        <v>0.6933732041115519</v>
       </c>
       <c r="H153" s="2">
         <v>0.3</v>
@@ -5389,8 +5389,8 @@
       <c r="B154" s="1">
         <v>43465</v>
       </c>
-      <c r="C154" s="2">
-        <v>526.78502766154008</v>
+      <c r="C154">
+        <v>526.78570000000002</v>
       </c>
       <c r="D154" s="2">
         <v>2982.19497</v>
@@ -5398,11 +5398,11 @@
       <c r="E154" s="2">
         <v>3.5473057148546587</v>
       </c>
-      <c r="F154" s="2">
-        <v>67.102980000000002</v>
+      <c r="F154">
+        <v>68.555215384615352</v>
       </c>
       <c r="G154">
-        <v>0.69624388957825545</v>
+        <v>0.70578016954915768</v>
       </c>
       <c r="H154" s="2">
         <v>0.46666666666666662</v>
@@ -5421,8 +5421,8 @@
       <c r="B155" s="1">
         <v>43555</v>
       </c>
-      <c r="C155" s="2">
-        <v>530.03852394421824</v>
+      <c r="C155">
+        <v>525.63649999999996</v>
       </c>
       <c r="D155" s="2">
         <v>2991.3098</v>
@@ -5430,11 +5430,11 @@
       <c r="E155" s="2">
         <v>3.4672825696562217</v>
       </c>
-      <c r="F155" s="2">
-        <v>63.22681</v>
+      <c r="F155">
+        <v>63.794841269841278</v>
       </c>
       <c r="G155">
-        <v>1.1326116718584984</v>
+        <v>1.1290087056500511</v>
       </c>
       <c r="H155" s="2">
         <v>1.1333333333333333</v>
@@ -5453,8 +5453,8 @@
       <c r="B156" s="1">
         <v>43646</v>
       </c>
-      <c r="C156" s="2">
-        <v>533.90116598581596</v>
+      <c r="C156">
+        <v>530.91999999999996</v>
       </c>
       <c r="D156" s="2">
         <v>2997.7643200000002</v>
@@ -5462,11 +5462,11 @@
       <c r="E156" s="2">
         <v>3.4177016282366282</v>
       </c>
-      <c r="F156" s="2">
-        <v>69.061750000000004</v>
+      <c r="F156">
+        <v>68.358125000000001</v>
       </c>
       <c r="G156">
-        <v>0.72384054273648246</v>
+        <v>0.71109307131249011</v>
       </c>
       <c r="H156" s="2">
         <v>0.69999999999999984</v>
@@ -5485,8 +5485,8 @@
       <c r="B157" s="1">
         <v>43738</v>
       </c>
-      <c r="C157" s="2">
-        <v>535.92302253554669</v>
+      <c r="C157">
+        <v>533.34799999999996</v>
       </c>
       <c r="D157" s="2">
         <v>3009.72894</v>
@@ -5494,11 +5494,11 @@
       <c r="E157" s="2">
         <v>3.4744363317579894</v>
       </c>
-      <c r="F157" s="2">
-        <v>61.9816</v>
+      <c r="F157">
+        <v>61.974999999999973</v>
       </c>
       <c r="G157">
-        <v>0.40907676737722909</v>
+        <v>0.41187241909412364</v>
       </c>
       <c r="H157" s="2">
         <v>0.70000000000000007</v>
@@ -5517,8 +5517,8 @@
       <c r="B158" s="1">
         <v>43830</v>
       </c>
-      <c r="C158" s="2">
-        <v>534.74955889013154</v>
+      <c r="C158">
+        <v>531.72580000000005</v>
       </c>
       <c r="D158" s="2">
         <v>3015.1360800000002</v>
@@ -5526,11 +5526,11 @@
       <c r="E158" s="2">
         <v>3.5257334385460801</v>
       </c>
-      <c r="F158" s="2">
-        <v>63.43647</v>
+      <c r="F158">
+        <v>62.296769230769243</v>
       </c>
       <c r="G158">
-        <v>0.65555323514914221</v>
+        <v>0.66604794863110328</v>
       </c>
       <c r="H158" s="2">
         <v>0.8666666666666667</v>
@@ -5549,8 +5549,8 @@
       <c r="B159" s="1">
         <v>43921</v>
       </c>
-      <c r="C159" s="2">
-        <v>531.05127907062229</v>
+      <c r="C159">
+        <v>527.72810000000004</v>
       </c>
       <c r="D159" s="2">
         <v>3019.2933499999999</v>
@@ -5558,11 +5558,11 @@
       <c r="E159" s="2">
         <v>3.5896862146652184</v>
       </c>
-      <c r="F159" s="2">
-        <v>50.550109999999997</v>
+      <c r="F159">
+        <v>50.92487742187501</v>
       </c>
       <c r="G159">
-        <v>0.56300575374052642</v>
+        <v>0.5608146001895733</v>
       </c>
       <c r="H159" s="2">
         <v>0.80000000000000016</v>
@@ -5581,8 +5581,8 @@
       <c r="B160" s="1">
         <v>44012</v>
       </c>
-      <c r="C160" s="2">
-        <v>498.79702318537954</v>
+      <c r="C160">
+        <v>496.03070000000002</v>
       </c>
       <c r="D160" s="2">
         <v>2990.16824</v>
@@ -5590,11 +5590,11 @@
       <c r="E160" s="2">
         <v>5.0403698146161284</v>
       </c>
-      <c r="F160" s="2">
-        <v>29.529540000000001</v>
+      <c r="F160">
+        <v>33.619374999999991</v>
       </c>
       <c r="G160">
-        <v>-7.1475422751632323E-3</v>
+        <v>-1.7561293023604208E-2</v>
       </c>
       <c r="H160" s="2">
         <v>0.83333333333333337</v>
@@ -5613,8 +5613,8 @@
       <c r="B161" s="1">
         <v>44104</v>
       </c>
-      <c r="C161" s="2">
-        <v>529.19458142561541</v>
+      <c r="C161">
+        <v>527.49429999999995</v>
       </c>
       <c r="D161" s="2">
         <v>3022.3491899999999</v>
@@ -5622,11 +5622,11 @@
       <c r="E161" s="2">
         <v>4.5961475591544216</v>
       </c>
-      <c r="F161" s="2">
-        <v>42.956150000000001</v>
+      <c r="F161">
+        <v>43.342205953846147</v>
       </c>
       <c r="G161">
-        <v>0.42163822075306712</v>
+        <v>0.42635554821211485</v>
       </c>
       <c r="H161" s="2">
         <v>0.9</v>
@@ -5645,8 +5645,8 @@
       <c r="B162" s="1">
         <v>44196</v>
       </c>
-      <c r="C162" s="2">
-        <v>531.55082542210812</v>
+      <c r="C162">
+        <v>528.05930000000001</v>
       </c>
       <c r="D162" s="2">
         <v>3026.1817500000002</v>
@@ -5654,11 +5654,11 @@
       <c r="E162" s="2">
         <v>4.3387358778403957</v>
       </c>
-      <c r="F162" s="2">
-        <v>44.269300000000001</v>
+      <c r="F162">
+        <v>45.220153846153842</v>
       </c>
       <c r="G162">
-        <v>0.35414478654391246</v>
+        <v>0.36349139466713609</v>
       </c>
       <c r="H162" s="2">
         <v>1</v>
@@ -5677,8 +5677,8 @@
       <c r="B163" s="1">
         <v>44286</v>
       </c>
-      <c r="C163" s="2">
-        <v>530.37218920336727</v>
+      <c r="C163">
+        <v>527.90719999999999</v>
       </c>
       <c r="D163" s="2">
         <v>3011.9945400000001</v>
@@ -5686,11 +5686,11 @@
       <c r="E163" s="2">
         <v>4.2723363428582299</v>
       </c>
-      <c r="F163" s="2">
-        <v>60.775880000000001</v>
+      <c r="F163">
+        <v>61.233333333333341</v>
       </c>
       <c r="G163">
-        <v>0.566252806204389</v>
+        <v>0.56475069308068271</v>
       </c>
       <c r="H163" s="2">
         <v>0.79999999999999993</v>
@@ -5709,8 +5709,8 @@
       <c r="B164" s="1">
         <v>44377</v>
       </c>
-      <c r="C164" s="2">
-        <v>542.64864190856315</v>
+      <c r="C164">
+        <v>540.94050000000004</v>
       </c>
       <c r="D164" s="2">
         <v>3053.2020299999999</v>
@@ -5718,11 +5718,11 @@
       <c r="E164" s="2">
         <v>3.7482590683204191</v>
       </c>
-      <c r="F164" s="2">
-        <v>68.796099999999996</v>
+      <c r="F164">
+        <v>68.976093750000018</v>
       </c>
       <c r="G164">
-        <v>1.7429078916493239</v>
+        <v>1.7315697512862158</v>
       </c>
       <c r="H164" s="2">
         <v>1.1333333333333335</v>
@@ -5741,8 +5741,8 @@
       <c r="B165" s="1">
         <v>44469</v>
       </c>
-      <c r="C165" s="2">
-        <v>549.07812761296475</v>
+      <c r="C165">
+        <v>547.94110000000001</v>
       </c>
       <c r="D165" s="2">
         <v>3087.7042200000001</v>
@@ -5750,11 +5750,11 @@
       <c r="E165" s="2">
         <v>3.1359481291026938</v>
       </c>
-      <c r="F165" s="2">
-        <v>73.461669999999998</v>
+      <c r="F165">
+        <v>73.148333333333341</v>
       </c>
       <c r="G165">
-        <v>2.0186712290901028</v>
+        <v>2.0087208077758731</v>
       </c>
       <c r="H165" s="2">
         <v>1.0333333333333334</v>
@@ -5773,8 +5773,8 @@
       <c r="B166" s="1">
         <v>44561</v>
       </c>
-      <c r="C166" s="2">
-        <v>555.07370970993315</v>
+      <c r="C166">
+        <v>563.48879999999997</v>
       </c>
       <c r="D166" s="2">
         <v>3105.1590500000002</v>
@@ -5782,11 +5782,11 @@
       <c r="E166" s="2">
         <v>2.5759045556827318</v>
       </c>
-      <c r="F166" s="2">
-        <v>79.462999999999994</v>
+      <c r="F166">
+        <v>79.620151515151505</v>
       </c>
       <c r="G166">
-        <v>3.4606642166649522</v>
+        <v>3.4669790378819414</v>
       </c>
       <c r="H166" s="2">
         <v>1.4666666666666668</v>
@@ -5805,8 +5805,8 @@
       <c r="B167" s="1">
         <v>44651</v>
       </c>
-      <c r="C167" s="2">
-        <v>555.64946056679969</v>
+      <c r="C167">
+        <v>560.82640000000004</v>
       </c>
       <c r="D167" s="2">
         <v>3110.4208899999999</v>
@@ -5814,11 +5814,34 @@
       <c r="E167" s="2">
         <v>2.365946693770741</v>
       </c>
-      <c r="F167" s="2">
-        <v>101.04073015873014</v>
+      <c r="F167">
+        <v>85.692173913043476</v>
       </c>
       <c r="G167">
-        <v>5.5958336521490679</v>
+        <v>5.3704552724031629</v>
+      </c>
+      <c r="H167" s="2">
+        <v>2.7573866666667</v>
+      </c>
+      <c r="J167" s="2">
+        <v>2.1872050000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>20222</v>
+      </c>
+      <c r="B168" s="1">
+        <v>44742</v>
+      </c>
+      <c r="G168">
+        <v>8.2511789134162257</v>
+      </c>
+      <c r="H168" s="2">
+        <v>4.7057433333000001</v>
+      </c>
+      <c r="J168" s="2">
+        <v>2.9424589999999999</v>
       </c>
     </row>
   </sheetData>
